--- a/WEB_SCRAPING/empleos.xlsx
+++ b/WEB_SCRAPING/empleos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="248">
   <si>
     <t>Título</t>
   </si>
@@ -46,93 +46,690 @@
     <t>ID de Usuario</t>
   </si>
   <si>
+    <t>Asistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Arequipa, Arequipa</t>
+  </si>
+  <si>
+    <t>s/. 2500</t>
+  </si>
+  <si>
+    <t>Objetivo: brindar apoyo en las funciones operativas de RRHH, incluyendo la administración de la documentación del personal, asistencia en procesos de reclutamiento, y la gestión de nómina. Además, colabora en la implementación de políticas de bienestar, capacitación y clima laboral.Funciones Generales: Gestion de legajo de personal, registro y actualizacion de datos, mantener la base de datos de empleados actualizada Gestion de Licencias y permisos, asegurando las politicas de la empresa Atencion al personal, recibir y gestionar los diferentes medios de comunicación de clientes internos y/o externos. Apoyo en la gestion de beneficios, seguros, planes de pensiones u otros Apoyo en la gestion de capacitaciones Apoyo en los procesos de reclutamiento y selección Apoyo en la implementacion de Politicas de RRHH, colaborar en la implementacion de programas de bienestar y capacitacion. Apoyar en la organización de eventos internos, actividades de clima y programa de integracionConocimientos: Bachiller en Administración, Relaciones Industriales y/o Ingeniería Industrial o afines Excel Avanzado Conocimiento en Legislacion laboral Conocimiento en proceso de nomina y beneficios Gestion documental Sistema de gestion de personal Experiencia: 2 años de experiencia en posiciones similares minimo Conocimiento de la legislacion laboral 1 año de experiencia en gestion administrativa Habilidades: Atencion al detalle, organización, comunicación, confidencialidad.</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ANALISTA DE MARKETING</t>
+  </si>
+  <si>
+    <t>Santiago de Surco, Lima</t>
+  </si>
+  <si>
+    <t>Destacable empresa de Publicidad se encuentra en la búsqueda de un Analista de Marketing.REQUISITOS Egresado de Marketing, Ciencias de la Comunicación, Publicidad o afines. Manejo de base de datos en Excel a nivel avanzado. Manejo de Data Analytics a nivel experto. Planificación y estructura de análisis. Experiencia mínima de 03 años en puestos similares en áreas de Marketing. Experiencia en Marketing Digital: desarrollo de proyectos online, comunicación digital. Conocimientos en diseño gráfico y uso de software de diseño. Conocimientos en Social Content, Wordpress, Social Listening, Google Analytics, Adwords y LinkedIn Ads, Facebook Ads y Youtube Insights. Experiencia en campañas de e-commerce, posicionamiento en buscadores, uso de aplicaciones móviles.FUNCIONES: Recopilar, analizar e interpretar datos relacionados con las campañas de marketing digital. Utilizar herramientas analíticas para evaluar el rendimiento de las campañas y extraer conclusiones. Realizar investigaciones de mercado para comprender las tendencias del mercado, la competencia y las necesidades del cliente. Identificar oportunidades y amenazas en el mercado. Dividir el mercado en segmentos para dirigir las estrategias de marketing de manera más efectiva. Desarrollar perfiles de clientes para personalizar las campañas. Evaluar el rendimiento de las campañas publicitarias y promocionales. Proponer mejoras basadas en el análisis de resultados. Supervisar y optimizar el rendimiento de la presencia en línea, incluyendo el SEO. Utilizar herramientas de analítica web para medir el tráfico y el comportamiento del usuario. Gestionar y optimizar el presupuesto de marketing. Calcular el retorno de inversión (ROI) de las actividades de marketing. Trabajar en estrecha colaboración con otros departamentos, como ventas, desarrollo de productos y finanzas. Asegurarse de que las estrategias de marketing estén alineadas con los objetivos generales de la empresa. Crear informes periódicos para compartir los resultados y las recomendaciones con el equipo directivo. Presentar análisis y propuestas a partes interesadas internas y externas.Mantenerse actualizado sobre las últimas herramientas y tecnologías de marketing. Implementar y gestionar plataformas de automatización de marketing, CRM y otras herramientas relevantes. Estar al tanto de las tendencias del marketing y adaptarse a los cambios en el entorno digital.COMPETENCIAS: Proactividad y organización. Trabajo en equipo. Alto sentido de responsabilidad. Orientación a resultados Instinto para solucionar contingencias. Compromiso organizacional. Comunicación asertiva.</t>
+  </si>
+  <si>
+    <t>VENDEDORES, CAJEROS Y ALMACENEROS PARA LA VICTORIA, SJL, Y LA MOLINA H...</t>
+  </si>
+  <si>
+    <t>La Victoria, Lima</t>
+  </si>
+  <si>
+    <t>VENDEDORES HORARIOS ROTATIVOS REQUISITOS:- Secundaria Completa- Experiencia de 6 meses a más, en ventas o atc - Disponibilidad de laborar a tiempo completo y en HORARIOS ROTATIVOS.OFRECEMOS:- Sueldo s/1025 + Comisiones acorde a la Venta- Ingreso a planilla con todos los beneficios de ley- Beneficios corporativosCAJERO / VENDEDOR HORARIOS ROTATIVOSREQUISITOS:- Experiencia de 6 meses en el puesto de ventas y caja - Conocimiento en manejo de dinero, arqueo de caja, POS y ventas- Disponibilidad de tiempo completo y en Horarios RotativosTE OFRECEMOS:- Sueldo S/.1100 + bonos - Ingreso a planilla desde el primer día con todos los beneficios de leyALMACENERO DE TIENDA - Experiencia de 6 meses a mas, en almacén.- Secundaria Completa- Disponibilidad de laborar a tiempo completoFUNCIONES:- Recepcionar y controlar la mercadería enviada por el almacén central.- Validar físicamente la mercadería vs la guía de remisión (códigos, cantidades y tallas), reportando cualquier diferencia oportunamente.- Realizar inventarios físicos selectivos y archivar la documentación correspondiente.- Ordenar de forma codificada el almacén y mantenerlo limpio.</t>
+  </si>
+  <si>
+    <t>Tesorero(a)</t>
+  </si>
+  <si>
+    <t>Grupo empresarial diversificado que opera en los sectores de combustibles y farmacéutico en la zona sur del Perú. Actualmente, la empresa gestiona cinco grifos y cuatro farmacias, ubicados estratégicamente para atender a una variada clientela en las principales ciudades de la región sur del país.Objetivo: Responsable de gestionar los recursos financieros de la empresa, asegurando la liquidez y disponibilidad de fondos necesarios para las operaciones. Administra flujo de caja, las inversiones y los financiamientos; minimiza riesgos financieros y garantiza el cumplimiento de las politicas internas y normativas legales.Funciones: Pago a proveedores, planilla, servicios u otros que el grupo adeude. Elaboración del Flujo de caja, proyección y control. Revisión de posición bancaria, monitoreo de los flujos. Validar Conciliación bancaria Respuesta de la conformidad de pago a proveedores Gestión de Inversión y financiamiento Relacionamiento Bancario Cumplimiento y control financiero Seguimiento a los cuentas por cobrar y pagar. Elaboracion de las políticas y normativa financiera. Reportes financieros y análisis. Demás funciones propias del cargo señaladas por su jefatura inmediata.Requisitos: Bachiller o Titulado en Contabilidad, Administración y/o Ingeniería Industrial. Excel Avanzado Conocimiento en cuentas por cobrar y pagar Analisis de riesgo Gestion de Tesoreria Excel avanzado.Experiencia: 4 años en posiciones similares. Experiencia en analisis financiero y elaboracion de flujo de caja.</t>
+  </si>
+  <si>
+    <t>¡Te brindamos movilidad + Bono de movilidad!! Asesores de Ventas Call ...</t>
+  </si>
+  <si>
+    <t>Lince, Lima</t>
+  </si>
+  <si>
+    <t>Somos una Compañía Multinacional Líder de Contact Center con más de 21 años de presencia en el mercado, tenemos presencia en Perú, Colombia, Chile, España y Estados Unidos.Nos encontramos en la búsqueda de los mejores Asesores / Teleoperadores de Ventas por Call Center, estaremos trabajando con una cartera de clientes pertenecientes al sector de las Telecomunicaciones (Internet - Fibra Óptica y Telefonía Móvil) de una Importante Empresa Española (cliente español).Tu principal función será la venta de productos de Telecomunicaciones (Internet fibra y líneas telefónicas móvil) para Público Español.Te buscamos a Ti: ¡Dinámico, proactivo, responsable y comprometido con tu gestión!Te ofrecemos los siguientes Beneficios: Planilla completa desde el primer día de gestión. Remuneración Fija Mensual de S/. 1025. Bono Movilización S/ 100. Bono de Bienvenida S/ 50 el 1er mes. Bono de Permanencia S/ 100 cada mes, por los 3 primeros meses. Bono Nocturno Atractivas comisiones de acuerdo a cumplimiento de metas. Todos los beneficios de ley al 100%. Contarás con Movilidad de recojo hasta el Site. Capacitaciones en PLANILLA COMPLETA Seguro de vida ley. Beneficios corporativos.Horario laboral: (Gestión de solo 40 horas semanales)Lunes a Viernes: 4 am a 12 pm (1 hr de refrigerio)Descansa Sábados y Domingos.Requisitos: Secundaria Completa. Experiencia mínima de 6 meses en ventas o retenciones por call center. Sólidas habilidades comerciales y de negociación, buscamos un perfil con gran capacidad de cierre de ventas. Idealmente con conocimiento o experiencia en manejo de cliente Español o campañas españolas de VENTAS por Call Center. Idealmente con experiencia previa en gestión Call Center con atención en Horario Madrugada. Experiencia en campañas de ventas de productos de telecomunicaciones (locales o extranjeros). Manejo de PC nivel usuario, Manejo de herramientas ofimáticas. Con todas las ganas de demostrar que eres el mejor asesor de ventas!!Considera que el trabajo es en Modalidad Presencial en Lince, como referencia a 3 cuadras de la estación Canadá del Metropolitano.¡¡No dejes pasar esta oportunidad!!Únete a un gran equipo!¡¡¡Te esperamos!!!</t>
+  </si>
+  <si>
+    <t>Analista de Nomina</t>
+  </si>
+  <si>
+    <t>José Luis Bustamante Y Rivero., Arequipa</t>
+  </si>
+  <si>
+    <t>Grupo empresarial diversificado que opera en los sectores de combustibles y farmacéutico en la zona sur del Perú. Actualmente, la empresa gestiona cinco grifos y cuatro farmacias, ubicados estratégicamente para atender a una variada clientela en las principales ciudades de la región sur del país.Objetivo: Elaboración de la información laboral relacionada a planillas de remuneraciones, provisión y/o estimación según normativa vigente de los beneficios laborales, liquidaciones de beneficios sociales y demás cálculos laborales y tributarios relacionados con la administración de nóminas.Funciones Generales: Alta y Baja de los trabajadores en el T-Registro. Revisión del Tareo remitido por las áreas de Operaciones. Elaboración de las planillas mensuales de Remuneraciones, Vacaciones, y Gratificaciones. Elaboración de la Liquidación de Pago de CTS. Cálculo de las Provisiones de Beneficios Sociales. Elaboración de las Liquidaciones de Beneficios Sociales. Cálculo y trámites de Subsidios. Cálculo de la Participación de los Trabajadores en la Utilidades de la Empresa Conocimiento y Soporte Documentario de Mutuos Disensos. Llenando, Presentación y Pago de la Planilla Electrónica -PLAME- y AFPNET. Demás funciones propias del cargo señaladas por su jefatura inmediata.Experiencia:4 años en posiciones similares mínimo, puede ser como asistente.3 años realizando trámites y Atención de los requerimientos solicitados por SUNAFIL, SUNAT, AFP, ONP y otras entidades relacionadas.Conocimientos:Bachiller o Titulado en Contabilidad, Administración, Relaciones Industriales y/o Ingeniería Industrial.Conocimiento de la Legislación Laboral vigente (Régimen Privado - D.Leg. 728)Conocimiento de la Ley para la Contratación de Trabajadores Extranjeros en el Perú D.Leg 689Conocimiento de los Gastos de Personal No Deducibles TributariamenteDominio de Sistemas de PlanillasExcel avanzado.</t>
+  </si>
+  <si>
+    <t>EJECUTIVO DE VENTAS (SEGUROS)</t>
+  </si>
+  <si>
+    <t>Somos HOWDEN PERÚ el mayor bróker de seguros en el mercado europeo. Nuestro equipo de trabajo está conformado por los(as) mejores profesionales, y esta oportunidad, buscamos al mejor talento para cubrir la posición de EJECUTIVO DE VENTAS DE SEGUROS.¿Cuál es el perfil que buscamos? Deseable Universitario en Administración de Empresas, Ingenierías, Técnico en Seguros, otros. Office Nivel Intermedio Experiencia mínima de 01 año en ventas de seguros en concesionarias y aseguradoras (INDISPENSABLE)¿Cuáles serán tus funciones? Ofrecer a los clientes las pólizas de seguros definidas para el canal. Gestionar las cotizaciones, emisiones o renovaciones, y/o endosos de pólizas de seguros asegurando que la Compañía Aseguradora cumplan los plazos definidos como oferta de servicio. Atención inmediata a consultas y/o requerimientos de los clientes por cotizaciones, emisiones y/o renovaciones de pólizas, por teléfono, por correo electrónico o visita. Gestionar con el equipo de cobranzas cualquier constancia y/o transferencia de pagos recibida directamente del cliente y asegurar la aplicación de estos a través del seguimiento a la gestión. Recepcionar y verificar que las pólizas se encuentren debidamente emitidos de acuerdo con las condiciones de negociación pactadas.¿Qué tenemos para ti? Básico + Comisiones Tarjeta de Alimentos Contrato por 06 meses (renovable) Seguro de EPS Modalidad trabajo: 100% presencial y rotativo en las tiendas de Lima Metropolitana</t>
+  </si>
+  <si>
+    <t>ANALISTA DE CREDITOS / CHACHAPOYAS "nueva agencia" - REF 769 2024</t>
+  </si>
+  <si>
+    <t>Chachapoyas, Amazonas</t>
+  </si>
+  <si>
+    <t>Administrar la cartera de créditos asignada (meta, mora y promoción) para el cumplimiento de objetivos del Área de Créditos.Responsabilidades: Colocar créditos considerando las políticas, normas internas y metas establecidas, participando en todas sus etapas desde la promoción hasta el desembolso del crédito; así como la custodia de los expedientes. Realizar seguimiento y recuperación del pago de los créditos otorgados para controlar la mora.Profesional técnico, Egresados, Bachiller o estudios truncos de cualquier especialidad de Inst o UniAnalista de creditos con Exp: 1 año de exp como Analista de Créditos en empr del sistema financiero-Deseable: Curso de especialización relacionado al cargo de mínimo veinticuatro (24) horas lectivasDiscapacidad: Esta vacante es apta para personas con discapacidad.Fecha límite de postulación: 16 SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>Encargado de Cumplimiento Tributario</t>
+  </si>
+  <si>
+    <t>Lima, Lima</t>
+  </si>
+  <si>
+    <t>Misión del Puesto:Establecer directrices y procedimientos para asegurar el registro preciso, el análisis detallado y la presentación adecuada de la información fiscal de la empresa, así como la supervisión de los activos fijos.Funciones:Mantener y actualizar el libro de activos fijos, garantizando la correcta gestión .Realizar los cálculos necesarios para la depreciación tanto tributaria como financiera, asegurando su correcta aplicación.Presentar declaraciones fiscales, tanto determinativas como informativas, dentro de los plazos establecidos.Calcular los impuestos mensuales, incluyendo Impuesto a la Renta, IGV, retenciones y detracciones, de acuerdo con las normativas vigentes.Determinar el impuesto a la renta anual, gestionando los ajustes tributarios que correspondan.Proponer mejoras en los sistemas de control y gestión tributaria para optimizar la eficiencia y el cumplimiento normativo.Colaborar con el departamento de Contabilidad para alinear las políticas contables con la normativa tributaria vigente, asegurando su correcta implementación.Requisitos:Universitario concluido en Contabilidad, Administración, FinanzasEspecialización, curso de Postgrado en Impuestos de preferencia.Experiencia en puestos similares por lo menos de 4 añosOffice avanzandoDisponibilidad Inmediata para el puesto</t>
+  </si>
+  <si>
+    <t>Terapeuta Ocupacional - TO</t>
+  </si>
+  <si>
+    <t>La Clínica San Juan de Dios es una Red Integral Privada de Servicios de Salud a Nivel Nacional, con el propósito de brindarle Atención de Salud con Excelencia, respaldados por los valores de la Orden Hospitalaria de San Juan de Dios (Hospitalidad, Calidad, Respeto, Espiritualidad). Evaluar y tratar pacientes con discapacidades físicas, mentales o emocionales mediante terapia ocupacional. Diseñar y ejecutar planes de tratamiento individualizados, llevando un control de las metas y progreso del paciente. Trabajar en equipo con otros profesionales de la salud para brindar una atención integral a los pacientes. Educar a los pacientes y familiares sobre el uso de equipos y técnicas diseñados para su bienestar. Requisitos: Bachiller o licenciado en Tecnólogo Médico en el área de Terapia Ocupacional. Habilidades interpersonales y capacidad de trabajo en equipo. Conocimientos y habilidades para el manejo de equipos y herramientas especializadas. Beneficios Un ambiente de trabajo colaborativo y enfocado en la calidad de atención a los pacientes. Ambientes especializados y equipos segun especialidad Oportunidades de crecimiento y desarrollo profesional. Capacitación continua y acceso a recursos especializados. Salario de hasta s/. 3, ( Sueldo + bonos ) Beneficios instituacionales. Horarios flexible segun disponibilidad del profesional. Descuentos en atenciones familiares.</t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
+  </si>
+  <si>
+    <t>Somos una Asociación Deportiva, fundada en diciembre del 2007, Lima Marina Club, es un proyecto visionario, de nuestro Past President Ignacio Larco Pedraza quien indico que Lima, debería contar con una Marina, igual que las grandes ciudades del mundo. PROPORCIONAMOS UN ESTILO DE VIDA EXCLUSIVO FRENTE AL MAR. Somos, vivimos y actuamos para satisfacer los sentidos de nuestros socios, mediante experiencias únicas, verdaderas y personalizadas. Lima Marina Club, referente de Club, consolidado como la primera marina de categoría mundial en el Perú y reconocida por su característica de gran funcionabilidad, exclusividad, calidad y distinción, nos encontramos en la búsqueda de talento para complementar nuestro equipo, en la posición de: RECEPCIONISTAFunciones: Brindar un cálido recibimiento y atender consultas de los socios e invitados. Registrar los datos de familiares e invitados de socios que visitan el club. Coordinar con seguridad y registrar los datos de invitados a eventos. Ingresar diariamente en el sistema la información de los ingresos y visitas. Atender y derivar las llamadas que ingresan a la central telefónica. Reportar a su jefatura las incidencias, sugerencias o reclamos diarios. Otras funciones que le asigne su jefatura de acuerdo a las necesidades operativas. Requisitos: Formación en Administración Hotelera, Secretariado o afines. 02 años en recepción o atención al cliente. Conocimiento en Calidad de Servicio, Telemarketing, Call Center. Beneficios Remuneración a corde al mercado. Ingreso a planilla con todo los beneficios de ley. Alimentación cubierta, movilidad a la salida, uniformes y lavandería. Oportunidad de ascender, mediante nuestra línea de carrera.</t>
+  </si>
+  <si>
+    <t>Mobile Developer Senior - Empresa Financiera</t>
+  </si>
+  <si>
+    <t>San Borja, Lima</t>
+  </si>
+  <si>
+    <t>En E&amp;S Solutions,Estamos en busqueda de una persona con experiencia como Mobile Developer Senior, con pasión por la tecnología, participación en proyectos grandes y asumir nuevos retos.El proyecto estará relacionado a la integración con una Importante empresa Financiera.Para incorporarte a nuestro equipo tendrás que contar con los siguientes requisitos: Desarrollo Android en Kotlin y/o Java nivel avanzado Conocimiento del IDE Android Studio nivel avanzado Uso de Firebase, APIs, Notificaciones Push, Chat, etc. Conocimiento en Arquitectura MVVM, MVP y MVC. Conocimiento en inyección de dependencias. Conocimiento en publicación en Google Play Store. Conocimiento en Azure DevOps para despliegue y gestión de HUs. Desarrollo iOS y publicación en App Store. Manejo de versiones en Git. Gestión y comunicación con usuarios y PO. Metodología Ágil. (Deseable) Conocimientos en Microservicios en Java. (Deseable) Deseable conocimientos en Angular. (Deseable) Conocimientos en integración con hardware de biometría dactilar. (Deseable) Diseño de Interfaces con XMLA cambio, ¿Qué ofrecemos? Trabajo 100% remoto. Desarrollo de línea de carrera con grandes clientes. Sueldo competitivo acorde al mercado. Regimen General y beneficios por ley.Si se encuentra interesado y cumples con los requisitos, hazme llegar tu CV Actualizado y tus pretensiones.</t>
+  </si>
+  <si>
+    <t>Analista Contable Senior</t>
+  </si>
+  <si>
+    <t>San Isidro, Lima</t>
+  </si>
+  <si>
+    <t>Somos una empresa de servicios y nos encontramos en busca del mejor talento para el puesto de Asistente Contable Senior.Profesional Técnico o Universitario de la carrera de Contabilidad (Egresados)Experiencia mínima de 2 años en el cargo.Manejo de Excell y Office a nivel intermedio.Las funciones serán:- Registrar, archivar e ingresar diariamente al sistema contable las facturas de compras.- Registro de caja chica.- Registro de recibos de honorarios.- Calcular, programar y pagar las detracciones de facturas de proveedores, tomando en cuenta las fechas de pago para evitar contingencias.- Realizar análisis de cuentas contables.- Registrar provisiones, seguimiento y control mensual recurrentes de gastos.- Generación y declaraciones mensuales y anuales ante SUNAT ( PDT, de plame y PDT.- Análisis de renta e IGV no domiciliado.- Asistencia en la elaboración de estados financieros.- Preparación y Declaración de libros electrónicos.- Apoyar en los procesos de auditoría interna, externa y órganos gubernamentales.- Registrar información en el ERP.- Entre otras funciones requeridas.Competencias y habilidades: Habilidad para trabajar de manera autónoma y en equipo, Habilidades de comunicación y atención al detalle, Proactividad, Orientación al logro, Adaptabilidad, Competitividad, Empatía, Comunicación Asertiva, Organización y gestión de tiempo y Comunicación efectiva.</t>
+  </si>
+  <si>
+    <t>Cocinero</t>
+  </si>
+  <si>
+    <t>Somos una Asociación Deportiva, fundada en diciembre del 2007, Lima Marina Club, es un proyecto visionario, de nuestro Past President Ignacio Larco Pedraza quien indico que Lima, debería contar con una Marina, igual que las grandes ciudades del mundo. Lima Marina Club, se ha consolidado como la primera marina de categoría mundial en el Perú, reconocida por sus características de gran funcionalidad, exclusividad, calidad y distinción. PROPORCIONAMOS UN ESTILO DE VIDA EXCLUSIVO FRENTE AL MAR. Somos, vivimos y actuamos para satisfacer los sentidos de nuestros socios, mediante experiencias únicas, verdaderas y personalizadas. Lima Marina Club, referente de Club, consolidado como la primera marina de categoría mundial en el Perú y reconocida por su característica de gran funcionabilidad, exclusividad, calidad y distinción, nos encontramos en la búsqueda de talento para complementar nuestro equipo, en la posición de: COCINEROFunciones:· Elaborar el mise and place según especialidad antes del servicio.· Elaborar los platos a la carta (entradas, fríos, calientes, salsas, etc.) que le asigne el Jefe del Área.· Preparar bocaditos según la especialidad para los eventos.· Realizar el registro de los insumos requeridos para el servicio en cada turno y entregar información al Jefe de cocina.· Recoger en almacén los insumos y/o mercaderías solicitados el día anterior o antes del servicio.· Verificar la temperatura correcta de almacenamiento de los productos de acuerdo a normas BPM.· Elaborar diariamente el registro del Kardex considerando cantidades y productos de su área que se encuentran en el almacén de cocina. Requisitos: Requisitos:Profesional Universitario o Técnicos en Gastronomía.Manejo Técnicas gastronómicas.Indispensable 2 años en posiciones similaresConocimientos de terminología gastronómica y buenas prácticas de manipulación.Disponibilidad para trabajar en diferentes horarios según la necesidad. Beneficios Horario:Horarios rotativos. (8AM a 5PM / 10AM a 7PM / 1PM A 10PM)Ofrecemos:Alimentación cubierta.Movilidad.Remuneración promedio al mercado.Ingreso a planilla con todos los beneficios de ley.Oportunidad de ascender, mediante nuestra línea de carrera.Pertenecer a una sólida empresa de prestigio y en crecimiento</t>
+  </si>
+  <si>
+    <t>CAJERA - Chacarilla, Jockey, San Borja, Larcomar, San Isidro</t>
+  </si>
+  <si>
+    <t>Prestigiosa empresa dedicada a la comercialización de productos textiles y artículos de cuero, en la actualidad contamos con 8 0 puntos de venta , por lo tanto buscamos personas para el puesto de CAJERA para nuestras tiendas de Boutique para formar parte de nuestra instituciónRequisitos: Conocimientos y/o estudios en certificación para cajeras, administración bancaria, contabilidad y/o afines. De preferencia 1 año como mínimo en puesto similares, realizando arqueos y/o cobros. De preferencia, experiencia en empresas de autoservicios y/o consumo masivo. Carné de vacuna contra el COVID-19. Carné de sanidad o en trámite (no indispensable para el día de la entrevista).Funciones Principales: Recibir pagos (en efectivo, tarjeta y vales) por la mercadería adquirida por el cliente. Recontar caja al final del turno (Cuadre de caja) y manejar P.O.S. Tener conocimientos de manejo de caja registradora. Ordenar, reponer, doblar y vaporizar prendas. Apoyar al equipo de visual cuando se requiera. Recepcionar mercaderías, apoyar en la limpieza del local y en puerta dando la bienvenida a los clientes. Otras funciones que indique la jefatura inmediata.Competencias: Orientación al cliente. Pasión por el servicio. Comunicación. Compromiso. Trabajo en equipo.Beneficios: Ingreso a Planilla desde el primer día con beneficios sociales (Asignación Familiar, Gratificaciones, CTS, Vacaciones y Utilidades). Horario: Tiempo Completo, de Lunes a Domingo de 1 0 am a 1 0 pm, con 2 dias de descanso semanal, 1 hora de refrigerio y 3 0 min de descanso por la tarde. Zonas en las que trabajarías: Jockey - Chacarilla - Rambla San Borja - Larcomar - San Isidro - Salaverry - San Miguel. Sueldo: S/ 1, 175 soles, al año S/ 1, 275 soles, segundo año S/ 1, 375. Planilla desde el primer día, seguro EESALUD, asignacion familiar, CTS, gratificación, vacaciones, utilidades y demás beneficios de ley.</t>
+  </si>
+  <si>
+    <t>Supervisora/Supervisor de Planta- Hidrometalurgia | Refinería Cajamarq...</t>
+  </si>
+  <si>
+    <t>Lurigancho, Lima</t>
+  </si>
+  <si>
+    <t>Descripción del puesto vacante¡En Nexa, valoramos y promovemos la pluralidad en todas sus formas!Siguiendo nuestro compromiso con la diversidad e inclusión, estamos especialmente motivados por recibir solicitudes de mujeres para esta posición. No obstante, animamos a todas las personas calificadas a postularse, independientemente de su género, identidad o cualquier otra característica, y unirse a nuestro equipo en el puesto de Supervisora/Supervisor de Planta- Hidrometalurgia para trabajar en el área de Hidrometalurgia de Nexa, en nuestra Refinería CajamarquillaSomos una empresa que se conecta e integra su negocio a las necesidades de la sociedad. Esta es nuestra forma de desarrollar la minería, siempre conectados a los cambios con personas comprometidas, inspiradas y en constante desarrollo.¡Únete a Nexa y forma parte de la minería que se mueve con el mundo!#mujerestalentoenmineríaResponsabilidades y asignacionesMisión del puesto: Supervisar los procesos de producción, trabajos de mantenimiento y proyectos de las plantas de Purificación, Cadmio y Flotación en las guardias, a fin de garantizar el cumplimiento de la rutina basadas en los Procedimientos Operativos, instructivos técnicos, estándares de SSMA, 7 S, calidad, control de costos del área y desarrollo de los colaboradores para lograr los volúmenes de producción de zinc refinado y polvo de zinc presupuestados.Funciones: Identificar las necesidades de entrenamiento de los colaboradores en el cumplimiento de los procedimientos operacionales de cada puesto de trabajo, a través de la aplicación de la CDP´s. Controlar y hacer seguimiento del sistema de gestión de calidad, y de las acciones correctivas de anomalías de los procesos. Hacer cumplir y controlar el plan de producción definido con PCP. Coordinar con laboratorio químico el análisis de muestras y control de los parámetros de calidad de zinc refinado y polvo de zinc. Participar y cumplir las acciones correspondientes tomadas en reuniones de control de procesos a través del análisis de los KPIs, reuniones de SSMA, reuniones de mantenimiento y gestión del área. Coordinar y hacer seguimiento de los trabajos correctivos y preventivos de los equipos del área. Desarrollar y promover a los colaboradores de la planta de acuerdo a su desempeño, perfil y expectativas para el puesto de trabajo. Controlar los costos correspondientes a las etapas de producción bajo su responsabilidad. Coordinar con el área de almacén la provisión de equipos de seguridad para el personal de la planta y todo suministro de materiales necesarios. Analizar y solucionar las contingencias operativas necesarias para asegurar la rutina de las guardias. Implementar y garantizar que se ejecuten los diferentes controles definidos para los riesgos de seguridad, salud y medio ambiente; en alineamiento a las Políticas de la Empresa, así como la toma de conciencia del personal a su cargo sobre el sistema de gestión de seguridad, salud y medio ambiente.Requisitos y calificaciones Licenciado de las carreras de Ingeniería Metalúrgica, Química o Afines. Contar con la colegiatura 2 a 3 años de experiencia en puestos similares en minería o en plantas industriales Conocimiento en Gestión de Operaciones en Plantas Industriales Conocimiento en gestión de calidad, gestión humana, procesos metalúrgicos, manejo de materiales y control de costos. MS Office a nivel intermedio (Excel, Word, Power Point, Outlook) Manejo del idioma inglés (intermedio) Portugués (Deseable)</t>
+  </si>
+  <si>
+    <t>Asistente de Gerencia Comercial / Exp. en TI</t>
+  </si>
+  <si>
+    <t>En Partners Technology , estamos en constante crecimiento por lo que estamos buscando una Asistente de Gerencia Comercial, para sumarse al equipo comercial.MisiónBrindar soporte en los diferentes procesos administrativos comerciales de la Gerencia Comercial en base a los procedimientos y cronogramas establecidos para cumplir con los diferentes requerimientos e informes solicitados por la gerencia y cumplir con los objetivos de ventas.Requisitos: Técnico o universitario titulado de las carreras de Administración, Marketing u otras carreras afines. Experiencia en el área Comercial mínimo 3 años (Indispensable). Experiencia en rubro Tecnológico (INDISPENSABLE). Disponibilidad para trabajar en San Isidro Dominio de Excel nivel intermedio.Condiciones Salario 1500 a 1700 Planilla MYPE Horario : Lunes a Viernes 9 am - 6 pm / Sabado 9 am - 1 pm Actividades recreativas Linea de carreraTipo de puesto: Tiempo completo</t>
+  </si>
+  <si>
+    <t>Admisionista</t>
+  </si>
+  <si>
+    <t>La Clínica San Juan de Dios es una Red Integral Privada de Servicios de Salud a Nivel Nacional, con el propósito de brindarle Atención de Salud con Excelencia, respaldados por los valores de la Orden Hospitalaria de San Juan de Dios (Hospitalidad, Calidad, Respeto, Espiritualidad). Experiencia en atencion al cliente. Experiencia en caja o estudios relacionados (deseable) 06 meses de experiencia como admisionista en sector salud (deseable) Manejo de herramientas de Office. Excelente nivel de desenvolvimiento. Adecuadas habiliades blandas Disponibilidad para trabajar presencialmente en San Luis de Lun – Sab en horario rotativo. Requisitos: Atención personalizada a pacientes. Coordinación con áreas involucradas en la programación. Agendar las Citas. Otras funciones afines. Beneficios Ingreso a planilla desde el primer día. Remuneración de S/. 1, Beneficios de ley. Grato ambiente laboral. Descuentos en atenciones médicas y medicinas. Uso de libre de ambientes (áreas verdes, áreas recreacionales)</t>
+  </si>
+  <si>
+    <t>Asistente de Diseño de Modas para Desarrollo de Producto de Tejido de ...</t>
+  </si>
+  <si>
+    <t>Asistente de Diseño de Modas para Desarrollo de Producto de Tejido de Punto en AlpacaResumen del PuestoBuscamos un Asistente de Diseño y Desarrollo de Producto para unirse a nuestro equipo Unidad de Diseño y Desarrollo de Producto de Tejido de Punto en Alpaca. El candidato ideal tendrá un fuerte conocimiento Diseño, Fichas tecnicas, Patronaje y dominio de illustrator; y será capaz de trabajar de forma independiente y como parte de un equipo.Responsabilidades Elaborar Fichas tecnicas en Ingles /castellano con el uso de adobe illustrator Ejecutar sus moldes para envio a los tejedores ya sea en papel o audaces u otros sistemas Desarrollar prototipos de prendas de vestir Trabajar y dar seguimiento a los proveedores de la produccion de las muestras Elaborar la ficha de procesos de cada muestraRequisitos Licenciatura en Diseño de Modas o campo relacionado. 1+ años de experiencia en tejido de punto rectilineo o crochet o palitos Fuerte conocimiento de lPatronaje Excelentes habilidades de adobe illustrator Capacidad para trabajar de forma independiente y como parte de un equipo. Ingles intermedio o tecnico Excelentes habilidades de comunicación escrita y verbal.</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROCESOS</t>
+  </si>
+  <si>
+    <t>Miraflores, Lima</t>
+  </si>
+  <si>
+    <t>Objetivo del puesto:Diseñar y optimizar los procesos de tratamiento de agua para garantizar la eficiencia y calidad operativa.Funciones y responsabilidades:Elaborar documentos de ingeniería para presentación de propuestas, licitaciones y paquete de documentos entregables de proyectos.Elaboración de propuestas técnicas / comerciales.Apoyar en las labores de dimensionamientos y selección de soluciones de tratamiento de agua.Apoyar en la elaboración de la concepción y diseño de sistemas, incluyendo el desarrollo de la ingeniería básica y de detalles, y los planos respectivos de tratamiento de agua.Participar activamente junto con las otras diciplinas involucradas en proyecto en el desarrollo de soluciones óptimas para la toma de decisiones en la elaboración de los productos de ingeniería.Registrar y desarrollar informes de operaciones en campo, identificando puntos de mejora y siguiendo la evolución de los equipos luego de implementar los cambios.Dar soporte en la ejecución de labores de campo inherentes al proyecto en desarrollo.Dar soporte técnico al personal comercial y técnico que así lo requiera en el desarrollo de sus labores.Dimensionar, diseñar y seleccionar equipos para la implementación de proyectos de ingeniería desde la fase conceptual hasta el desarrollo de hojas de datos técnicos de equipos.Elaboración de propuestas técnicas / comerciales.Realizar labores específicas asignadas por el gerente y/o jefes para el cumplimiento de los objetivos y encargos asignados al áreaRequisitosTitulado(a) en Ingeniería Química o mecánica.Experiencia mínima comprobable de 1 año.Conocimientos en procesos hidráulicos.Manejo de Herramientas ofimáticas (MS Excel, Word)Manejo de software de planificación y proyectos (MS Project, Primavera)Manejo de AutoCAD nivel básico.Brevete vigente.Disponibilidad para viajar.OfrecemosSalario acorde al mercado.Todos los beneficios de ley.Grato ambiente laboral, donde se respetan la diversidad y la equidad de género.Oportunidad de crecimiento profesional y académico.</t>
+  </si>
+  <si>
+    <t>Analista Senior de BI</t>
+  </si>
+  <si>
+    <t>Plaza Vea y Vivanda, empresa que fomenta y respeta en sus procesos de atracción y crecimiento de talento la equidad de género, inclusión y diversidad; nos encontramos en búsqueda del mejor talento para ocupar la posición de: Analista Senior de BI Objetivo del Puesto: Extrae, transforma y analiza data para generar información que de soporte al área y permita predecir el comportamiento que poseen los datos. Funciones Principales: • Sistematizar la información conforme a los objetivos definidos por la Jefatura y generar tableros de control y análisis de datos. • Mantener actualizada la información bajo su gestión, cruzando variables cuantitativas y cualitativas para sus reportes. • Analizar indicadores e información generada en el área por las diversas plataformas, con la finalidad de generar conclusiones y reportes. • Efectuar análisis que soporten la gestión eficiente de los recursos desde el punto de tiendas y áreas de soporte. • Coordinar con áreas internas para la toma de decisiones y co-creacion de diagnósticos • Realizar otras funciones afines o complementarias que le indique su Jefe inmediato. Requisitos: • Bachiller en Ingeniería Industrial, Ingeniería de Sistemas, Ingeniería de Gestión empresarial a fines. • Poseer 2 año como Analista de BI o Analistas Bussiness Intelligence o Analista de data maestra. • Indispensable manejo de SQL a nivel intermedio. • Deseable manejo de Big Query a nivel intermedio. • Indispensable: Excel a nivel avanzado. • Indispensable manejo de inglés a nivel intermedio. Beneficios: • Incorporarse al segundo empleador más grande del país, mediante contrato indeterminado. • Beneficios corporativos especiales, descuentos en las empresas de todo el grupo Intercorp, EPS, Cartilla de horas libres, entre otros. Recuerda utilizar nuestros canales de reclutamiento oficiales (Portal de empleo Intercorp Retail, Bumeran y Computrabajo) y que participar en el proceso no tiene costo.</t>
+  </si>
+  <si>
+    <t>ANALISTA DE CRÉDITOS JUNIOR Y CON EXPERIENCIA - ALTO LIBERTAD EN AREQU...</t>
+  </si>
+  <si>
+    <t>Caja Cusco, entidad financiera líder en la región sur del Perú, especializada en microfinanzas, ahorros y servicios financieros. Con más de 2,300 colaboradores comprometidos que lo hacen posible.Con más de 90 agencias a nivel nacional, nuestro equipo sale todos los días con la meta de mejorar la calidad de vida y ofrecer alternativas financieras a la medida de las necesidades financieras de nuestros clientes y potenciales clientes. Creemos que la inclusión financiera sumará al crecimiento de más familias peruanas. Súmate al equipo de Caja Cusco. Responsabilidades Colocar créditos considerando las políticas, normas internas y metas establecidas, participando en todas sus etapas desde la promoción hasta el desembolso del crédito; así como la custodia de los expedientes. Realizar seguimiento y recuperación del pago de los créditos otorgados para controlar la mora.Competencias Pensamiento Analítico. Negociación Efectiva. Orientación a Resultados. Orientación al Cliente. Trabajo Bajo Presión. Requisitos: Requisitos MínimosFormación: Estudios Truncos, Profesional Técnico, Egresado, Bachiller de cualquier especialidad de Institutos o Universidades.Experiencia: Analista de Créditos con categoría superior a junior: Un (01) año de experiencia como Analista de Créditos en empresas del Sistema Financiero. Analista de Créditos junior: Sin experienciaOtros requeridos para el puesto:Deseable: Curso de Especialización relacionado al cargo de mínimo veinticuatro (24) horas lectivas. Fecha límite de postulación: Martes, 10 de setiembre del 2024 Beneficios Remuneración fija + Bono por movilidad + Comisión variable por cumplimiento de metas. Oportunidad de Línea de carrera. Ingreso a planilla con todos los beneficios de ley. Opcional: Acceso a seguro privado de salud.</t>
+  </si>
+  <si>
+    <t>ANALISTA DE SOPORTE DE SERVICIO DE ALIMENTOS - RD</t>
+  </si>
+  <si>
+    <t>La Victoria, Lambayeque</t>
+  </si>
+  <si>
+    <t>Somos una empresa cuya principal actividad está orientada a la fabricación y comercialización de productos alimenticios en general, sazonadores, aditivos y fertilizantes. Elaborar cronogramas de los proyectos de desarrollo y seguimiento de los mismos. Desarrollo de prototipos en base al concepto del producto. Coordinaciones con proveedores para obtención de muestras e información necesarias para el desarrollo de productos. Conocer y aplicar en su competencia el Sistemas de Gestión Integrado Desarrollar productos de Calidad: Desarrollar fórmulas que cumplan con el concepto del proyecto, con las leyes y normas de alimentos y los estándares de calidad de la empresa. Cumplir con los cronogramas de los proyectos de desarrollo: Controlar las actividades de desarrollo y el tiempo asignado a ellas. Apoyo en la preparación de platos de comida para pruebas sensoriales con consumidores. Requisitos: Bachiller en Ingeniería de alimentos o afines 1 año de experiencia certificada Conocimientos en Ingeniería de Alimentos Gestión de proyectos Conocimiento en desarrollo de nuevos productos Normas nacionales e internacionales de alimentos Sistemas de Calidad (HACCP, BPM, ISO) Experiencia en empresas business-to-business. Beneficios Alimentación cubierta al 90% EPS cubierta al 80% Capacitación constante</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Ventas / Trabaja en centros comerciales cerca a tu casa</t>
+  </si>
+  <si>
+    <t>En Pandero Casa impulsamos#HistoriasdeExito..Únete como EJECUTIVO DE VENTAS (cono norte) para ofrecer financiamiento de inmuebles y dale la bienvenida a lo posible!Objetivo del puesto:Hacer posible que nuestros clientes cumplan la meta del casa propia, vendiendo contratos de fondos colectivos en nuestra amplia red de puntos de venta.Requisitos: Personas resilientes y super proactivas que puedan captar clientes en los centros comerciales mas top de Lima. Disponibilidad para trabajar full-time 48 horas a la semana (lunes a domingo y día de descanso durante la semana). CAPACIDAD PARA APRENDER ONLINE, buen manejo de aplicaciones móvilesTe ofrecemos: Ingreso a planilla con todos los beneficios de ley. Eres full comisionista y tú eliges cuanto ganar.. ¡No existe un límite! adicionalmente tendrás incentivos (premios) en dólares por haber llegado a tus metas.- Se brindará un monto de respaldo en caso no comisiones al mes.Mientras te desarrollas profesionalmente en nuestra empresa, tendrás: capacitaciones, excelente clima laboral, convenios corporativos para ti y tu familia</t>
+  </si>
+  <si>
+    <t>"Únete a la Mejor Inmobiliaria de USA: Altas Comisiones, Capacitacione...</t>
+  </si>
+  <si>
+    <t>¡Únete a una de las Marcas Americanas más Sólidas en el Sector Inmobiliario y Lleva Tu Carrera al Siguiente Nivel!Estamos en búsqueda de los mejores agentes inmobiliarios que deseen formar parte de una empresa en pleno crecimiento y con un número impresionante de operaciones, tanto en Estados Unidos como en el mundo.¿Por qué unirte a nosotros? Altas Comisiones: Gana desde un 75% de comisiones en cada venta. Ingresos Residuales: Genera ingresos pasivos por cada agente que refieras a nuestra marca. Crea tu Propio Equipo: Te ayudamos a construir tu propia inmobiliaria y reclutar a tus agentes, ganando hasta un 25% en comisiones por cada uno de ellos. Expansión Internacional: ¡Amplía tu marca a nivel internacional y vende propiedades en USA con grandes comisiones!Lo que ofrecemos: Las mejores herramientas de marketing para destacar en el mercado. Consultorías y entrenamientos continuos para convertirte en un profesional del sector. Soporte legal y administrativo para que puedas enfocarte en vender. Todo lo que necesitas para convertirte en un mega agente y alcanzar tus metas.Si estás listo para dar el siguiente paso en tu carrera inmobiliaria y quieres aprovechar todas estas ventajas, ¡esta es tu oportunidad! Únete a nosotros y sé parte de un equipo que no solo valora tu trabajo, sino que también te brinda todas las herramientas para que tengas éxito.</t>
+  </si>
+  <si>
+    <t>¿Tienes Habilidades de Comunicación? Únete a Nuestro Equipo y Ayuda a ...</t>
+  </si>
+  <si>
+    <t>¡Únete a Nuestro Equipo y Ayuda a Transformar el Futuro de los Mejores Agentes Inmobiliarios del País!Sobre la posición: Estamos buscando personas con excelentes habilidades de comunicación y persuasión que nos ayuden a llenar la agenda de citas con agentes inmobiliarios interesados en unirse a nuestra consultoría y equipo. Tu misión será ser el primer contacto, estableciendo relaciones que permitan a los agentes mejorar su productividad y formar parte de una inmobiliaria que ofrece las mejores oportunidades de crecimiento.¿Qué harás? Coordinar y agendar citas entre nuestro broker y agentes inmobiliarios. Apoyar el proceso de reclutamiento de agentes, ayudándoles a ver cómo pueden alcanzar su máximo potencial con nuestra consultoría. Influir positivamente en los agentes para que se unan a nuestra inmobiliaria, reconocida por formar a los mejores del país. Colaborar estrechamente con nuestro equipo de ventas y reclutamiento, asegurando que cada agente reciba la mejor experiencia desde el primer contacto.Lo que ofrecemos: Capacitaciones continuas en técnicas de influencia, persuasión y comunicación. Formación especializada en el sector inmobiliario, permitiéndote entender a fondo el rubro. Oportunidades de crecimiento dentro de una inmobiliaria americana de prestigio, que impulsa el éxito de sus agentes. Un entorno de trabajo dinámico y con enfoque en la productividad y desarrollo personal.¿Qué buscamos? Personas proactivas con habilidades para establecer relaciones y captar el interés de los agentes. Ganas de aprender y crecer en un sector tan desafiante como el inmobiliario. Deseo de ayudar a otros a alcanzar su máximo potencial.Si te apasiona comunicar, persuadir y ayudar a otros a crecer, ¡este es el lugar para ti! Únete a nuestro equipo y sé parte de una consultoría que está formando a los mejores agentes del país.</t>
+  </si>
+  <si>
+    <t>"¡Únete a una Inmobiliaria Americana de Éxito en Perú! Buscamos Asiste...</t>
+  </si>
+  <si>
+    <t>¡Únete a una Inmobiliaria Americana de Éxito! Estamos en Búsqueda de un Asistente Administrativo ProactivoSobre nosotros: Somos una inmobiliaria americana en expansión en Perú, comprometida con el crecimiento y productividad de nuestros agentes. Nos enfocamos en ofrecer entrenamientos de primer nivel y organizar eventos que impulsan a nuestros equipos a alcanzar el éxito.Lo que buscamos: Un Asistente Administrativo que sea organizado, proactivo y con habilidades para llevar la agenda y apoyar al broker en la gestión diaria de la empresa. Si te apasiona el sector inmobiliario y quieres formar parte de un equipo dinámico, ¡te estamos buscando!Responsabilidades del puesto: Gestionar y coordinar las agendas y citas del broker con los agentes. Supervisar y organizar las visitas a propiedades y llevar control de las mismas. Apoyar en la planificación y organización de entrenamientos y eventos de la empresa. Mantener al día los temas administrativos y operativos del negocio. Asegurarse de que todo el equipo esté alineado con las metas y productividad de la inmobiliaria.Perfil deseado: Experiencia previa en asistencia administrativa (de preferencia en el sector inmobiliario). Excelentes habilidades de organización y comunicación. Capacidad para trabajar de manera proactiva y multitasking. Actitud positiva y disposición para aprender y crecer junto al equipo.Únete a nuestro equipo y sé parte del éxito de una empresa internacional que se preocupa por el desarrollo y productividad de sus agentes.</t>
+  </si>
+  <si>
+    <t>Especialista en Marketing Digital</t>
+  </si>
+  <si>
+    <t>Continental University of Florida te invita a ser parte de su equipo de talentos contribuyendo a la presencia de marca en los activos digitales. Transmitiendo el ADN de CUF en su comunicación, generar un vínculo con los diversos públicos objetivos con la finalidad de generar consideración, conversión, engagement y recomendación de marca. Deberá asegurar una atención y gestión oportuna en las redes sociales y entorno digital (SEM y SEO). Asimismo, deberá medir los resultados con KPIs adecuados a sus funciones.¿Qué desafios tendras? Planificar y ejecutar el marketing digital, incluidos SEO/SEM, base de datos de marketing, email, redes sociales y campañas de publicidad gráfica (experiencia práctica demostrable) Medir e informar del funcionamiento de las campañas activas de marketing digital y evaluarla con respecto a los objetivos (retorno de la inversión y KPI) Identificar tendencias e información, y optimizar el gasto y el funcionamiento en base a la información Planificar, realizar y medir experimentos y pruebas de conversión Crear páginas de aterrizaje y optimizar la experiencia del usuario Evaluar la experiencia del cliente de principio a fin en varios canales y puntos de contacto del cliente. Analizar puntos de conversión y optimizar los embudos de clasificación de los usuarios Persona altamente creativa con experiencia en la identificación del público objetivo y el diseño de campañas digitales. Experiencia en la optimización de páginas de aterrizaje y embudos de clasificación de usuarios Experiencia con A/B y experimentos multivariados Amplios conocimientos en herramientas para el análisis de sitios web (por ejemplo, Google Analytics, NetInsight, Omniture, WebTrends) Experiencia en la configuración y optimización de campañas de Google Adwords Conocimientos prácticos sobre el desarrollo y las limitaciones de HTML, CSS y JavaScript Grandes capacidades analíticas orientada a los datos, últimas tendencias y mejores prácticas relacionadas con las mediciones en el marketing online¿A quién buscamos? Profesional Bachiller en Ciencias de la Comunicación, Marketing Digital, Publicidad o afines. Estudios adicionales de Cursos o diplomados especializados en Marketing Digital, Social Media o afines. Experiencia de 2 a 3 años mínimo en el sector educativo y foco en especialización en mkt digital (experiencia práctica demostrable) Conocimiento de manejo de redes sociales y entorno digital (SEM y SEO): Facebook, Instagram, LinkedIn, Youtube, Google, TikTok, X, u otras redes sociales. (A Nivel Avanzado) Conocimiento en la medición e información del funcionamiento de las campañas activas de marketing digital y evaluarla con respecto a los objetivos (retorno de la inversión y KPI). Amplios conocimientos en herramientas para el análisis de sitios web (por ejemplo, Google Analytics, NetInsight, Omniture, WebTrends). Conocimiento y manejo de herramientas de trabajo colaborativo digital (Google Drive, Trello, Wetransfer) Otros: Microsoft Office a nivel Intermedio¿ Qué te ofrecemos? Trabajar en una organización con propósito, innovadora y global. Trabajar en un equipo multidisciplinario y orientado a aprendizaje Planilla completa con todos los beneficios de ley. Bonos por cumplimiento de desempeño, utilidades. EPS de libre afiliación Capacitación constante y descuentos corporativos.</t>
+  </si>
+  <si>
+    <t>Jefe de Mantenimiento (Planta de Alimentos)</t>
+  </si>
+  <si>
+    <t>Callao, Lima</t>
+  </si>
+  <si>
+    <t>En Verdum, estamos buscando un Jefe de Mantenimiento altamente calificado para unirse a nuestro equipo. El candidato ideal dirijirá a su equipo al logro de los objetivos de intervención de máquinas para lograr el máximo aprovechamiento de los recursos y asegurar la continuidad operativa y productiva.Responsabilidades: Elabora y ejecuta el Programa de Mantenimiento Preventivo mensual y anual. Elabora, gestiona y controla el presupuesto mensual y anual de mantenimiento preventivo, predictivo, correctivo y emergencia. Asegurar el correcto funcionamiento de los equipos de trabajo y de las instalaciones de la empresa. Coordina procesos con el jefe de producción y con otros jefes de departamentos de la empresa, para diseñar y poner en práctica el mantenimiento de cada departamento. Junto con el responsable de prevención de riesgos laborales coordina las acciones del mantenimiento de la maquinaria, equipos de trabajo y instalaciones para evitar accidentes. Monitorea e implementa los indicadores de gestión de mantenimiento requeridos para el cumplimiento de sus funciones. Controla y capacita sobre los resultados de liquidación, ingresos y reportes del ERP. Participa en el desarrollo e implementación de nuevos proyectos y mejoras dentro de planta. Otras actividades que el puesto y/o su jefatura requiera, tal como evaluación de todo el personal a su cargo.Requisitos: Ingeniero Mecánico, Eléctrico, Mecatrónico o alguna otra relacionada con el cargo. Mínimo 5 años de experiencia en posiciones similares y 2 años de experiencia en planta de Alimentos (excluyente). Excelentes habilidades de comunicación y liderazgo.</t>
+  </si>
+  <si>
+    <t>Ingeniero Residente de Obra - Subestación Eléctrica</t>
+  </si>
+  <si>
+    <t>Otuzco, La Libertad</t>
+  </si>
+  <si>
+    <t>Requisitos: Titulado y colegiado de Ingeniería Eléctrica o Ingeniería Mecánico-Eléctrica. Experiencia comprobada mínima de 03 años, específicamente en Subestaciones como Ingeniero Residente de Obra y/o Ingeniero Supervisor de Obra y/o Residente Electromecánico y/o Supervisor Electromecánico y/o Coordinador de Obra y/o Ingeniero Jefe de Supervisión y/o Ingeniero Inspector en Subestaciones de potencia iguales o mayores a 5 MVA, nivel de tensión igual o mayor a 33 KV. Disponibilidad para laborar en Otuzco (La Libertad).Beneficios: Viáticos cubiertos Capacitaciones Línea de carrera</t>
+  </si>
+  <si>
+    <t>Vendedor de Campo</t>
+  </si>
+  <si>
+    <t>San Martín De Porres - Lima, Lima</t>
+  </si>
+  <si>
+    <t>¡Únete a nuestro equipo! Estamos buscando vendedores proactivos y apasionados para expandir nuestras ventas de arena para gatos en Lima.Objetivos del puesto:Mantener, atender y desarrollar relaciones sólidas con los clientes posicionando a la empresa como proveedor principal de Arena para Gato.Requisitos Secundaria completa Estudios técnicos de preferencia (Administración, Ing. Industrial, Computación) Experiencia mínima de 01 año ventas consumo masivo, comida/accesorios para mascotas (Altamente deseable) Contar con una motoPrincipales funciones: Visitar clientes según la zona asignada Realizar y gestionar pedidos, asegurando un seguimiento efectivo de las ventas y el cumplimiento de los objetivos mensuales. Administrar y mantener actualizada la cartera de clientes. Asistir en la gestión de cobranzas para algunos clientes. Seguimiento a estados de cuenta de clientes asignados. Reportar y analizar los movimientos del mercado.Modalidad de Trabajo: Modalidad 100% presencial. Lunes a Viernes. Sábados medio día.Si cumples con los requisitos y estás listo para enfrentar nuevos desafíos, ¡queremos conocerte!</t>
+  </si>
+  <si>
+    <t>Asesor de Negocios</t>
+  </si>
+  <si>
+    <t>Somos una entidad financiera con más de 25 años de experiencia en el mercado. Nos enfocamos en atender las necesidades integrales de nuestros clientes de pequeña y mediana empresa, acompañándolos en su crecimiento de forma ágil, cercana y eficiente.Actualmente nos encontramos en la búsqueda de los mejores talentos para sumarse a nuestra #TOTALfamilia como ASESOR DE NEGOCIOS para nuestra sede en Lima. Si te apasionan los retos y buscas crecer en el rubro financiero ¡Esta es tu oportunidad! Postula con nosotros y forma parte de una de las mejores empresas para trabajar en el Perú según #GPTW.Requisitos: Técnico egresado o Bachiller de las carreras de Administración, Negocios y/o carreras afines. Manejo de MS office a nivel intermedio. Experiencia mínima de 1 año servicios financieros y/o similares en ventas directas a través de visitas de campo (indispensable). Horario de trabajo: De lunes a viernes de 09:00am a 6:00pm (presencial). Persona proactiva y orientada a resultados.Funciones: Incrementar la cartera de clientes al buscar activamente nuevas oportunidades de negocios. Programar y realizar las visitas de campo a clientes. Fidelizar a los clientes y dar seguimiento. Cumplir con los objetivos comerciales y metas asignadas. Realizar todas las actividades comerciales para la formalización de nuevos clientes.Beneficios: Salario acorde al mercado: Fijo + variable + bono de movilidad Ingreso a planilla completa desde el primer día de trabajo. Capacitaciones constantes. Pertenecer a una empresa GPTW EPS cubierta al 50% Oportunidad de Crecimiento Plan Oncológico</t>
+  </si>
+  <si>
+    <t>JEFE COMERCIAL</t>
+  </si>
+  <si>
+    <t>PUESTO: JEFE DE COMERCIALDESCRIPCIÓN:Empresa líder en Tecnologías Digitales de Comunicación y Comercialización, busca integrar a su equipo a mujer profesional motivada, con habilidades de liderazgo, que gestione su equipo de ventas y marketing. Enfocada en el logro de objetivos, planificada, organizada e innovadora, que maneje presupuestos y tome decisiones.Nivel educativo:Egresada universitaria o con estudios culminados de las carreras de Marketing, Gestión Comercial, Administración, Ingeniería Industrial, Sistemas, Comunicaciones o afines.Experiencia:Mínimo 02 años en cargos de ventas, marketing y/o comercial, ideal en servicios B2B. Con experiencia comprobada.COMPETENCIAS PERSONALES: Comprometida. Alto nivel de Comunicación y Negociación. Escucha activa e interpretativa. Toma de decisiones basadas en información relevante. Liderazgo. Manejo y gestión de equipos de trabajo. Sentido de solución. Orientación a resultados. Mejora continuaHABILIDADES TÉCNICAS DESEABLES: Experiencia en metodologías agiles. Conocimiento de Office, CRM de ventas y Power BI. Conocimiento y habilidades en tecnologías digitales.FUNCIONES: Responsable de sus equipos (Ventas y Marketing), así como de sus resultados. Responsable del seguimiento y cumplimiento de las ventas y metas/cuotas asignadas. Diseñar y cumplir el Plan Comercial y Planes de Acción. Conocer las funcionalidades de los productos / servicios. Desarrollar nuevos clientes y mercados nacionales e internacionales. Desarrollar clientes potenciales y ampliar las cuentas existentes. Prospección activa. Estructurar propuestas comerciales. Identificar y/o atender oportunidades de negocio. Gestionar el ciclo completo de ventas, desde la generación de la oportunidad hasta el cierre de la venta. Gestión del pipeline y forecast. Manejo de reportes. Dirigir reuniones de ventas con clientes, preparación de presentaciones, elaboración de materiales y seguimiento a los puntos / acuerdos tomados. Seguimiento, motivación y capacitación a su equipo de ejecutivas de venta. Implementar estrategias y acciones de Mejora continua / Calidad de servicio / Post venta según escalamiento (SLA) del SAC. Desarrollar estrategias de Retención y Fidelización de clientes. Desarrollar estrategias de Segmentación, Posicionamiento y Comunicación. Construir relaciones solidas con clientes. Resolver Incidencias / Consultas de clientes Clave. Colaborar en resolución de problemas y crear oportunidades de crecimiento en coordinación interdepartamental. Definir y monitorear métricas clave de su equipo a cargo. Mantener actualizado el CRM interno con todas las actividades, clientes activos y potenciales, y asegurar que su equipo también lo haga. Mantenerse a la vanguardia sobre tendencias de la industria e innovaciones tecnológicas. Benchmarking e identificación de acciones en el rubro, identificación de precios, oportunidades y beneficios. Colaborar con el equipo de Operaciones y Desarrollo (TI), proponer actualizaciones y mejoras en los productos y servicios, integrar nuevas funcionalidades. Definir presupuestos de inversión en comunicación interna y externa, redes sociales, eventos, merchandising, y otros correspondientes a su área y alcance.BENEFICIOS: Libertad de crear, y decidir sobre su equipo de trabajo. Pertenecer al rubro que guiará las comunicaciones y transacciones del futuro. Sueldo Base (remuneración acorde al mercado). Comisiones (por colocación de servicios/productos y de su equipo a cargo). Bono (por cumplimiento de metas trimestrales). Desarrollo profesional y evolución constante de tus habilidades. Excelente ambiente colaborativo. Acceso a cursos y capacitaciones. Ingreso a planilla con todos los beneficios de ley. Seguro vida ley.Lugar de trabajo: Santiago de SurcoTipo de puesto: Tiempo completo / Presencial.Edad: Entre 29 y 45 años.Remuneración: S/ 2,500.00 a S/ 3,000.00 + Comisiones + Bono.Horario: De Lunes a Viernes de 9:00 am - 7:00 pm / Sábados de 9:00 am - 12:00 m (home office).Abstenerse a la postulación de no contar con los requisitos solicitados.</t>
+  </si>
+  <si>
+    <t>Jefe Comercial - Inmobiliaria</t>
+  </si>
+  <si>
+    <t>Requesitos: Profesionales de la carrera de la Ingeniería Industrial, Administrador de Empresas, Marketing o afines. 5 años de experiencia mínima como Jefe Comercial / Jefe de ventas /Jefe de convenios/ Gerente comercial o similar. Maestría o diplomado en afinidad al rubro inmobiliario. Se valorará estudios en Dirección Comercial. Experiencia excluyente en el sector inmobiliario, con énfasis en la supervisión de equipos. Conocimientos sólidos en ratios financieros y comerciales.Funciones: Definir las cuotas individuales como colectivas, asignando los incentivos correspondientes. Diseñar y ejecutar las estrategias de venta, teniendo en cuenta, el planeamiento estratégico de la organización. Seleccionar, formar, motivar y evaluar a los colaboradores de área de ventas. Coordinar y comunicar a otras áreas de la organización, las actividades que requieran soporte y cooperación. Negociar y cerrar los acuerdos de ventas, por los diferentes canales de venta. Implementar y supervisar las políticas, normas y procedimientos en relación con el área de ventas. Manejo del clima laboral del área y manejo de situaciones de crisis, dentro del equipo de ventas. Administrar los recursos destinados para el área de ventas. Formulación de planes de acción. Establecer métricas de control, diarias, semanales, quincenales, mensuales. (informe de productividad) Desarrollo del plan de mejora continua de los colaboradores. Informe de entrega de convenios y la conversión de este. Desarrollo de pronóstico y proyección de ventas. Comité́ semanal de avances. Informe de quejas y reclamos de clientes.Competencias: Liderazgo Búsqueda de información · Análisis Adaptabilidad al cambio Orientación al cliente Beneficios: Sueldo por encima del mercado + comisiones Seguro EPS Planilla Mype Flexibilidad Laboral Capacitación constante Crecimiento profesional</t>
+  </si>
+  <si>
+    <t>Practicante del Taller de Reparaciones</t>
+  </si>
+  <si>
+    <t>Lurín, Lima</t>
+  </si>
+  <si>
+    <t>Buscamos Egresados de las carreras técnicas de Mecánica, Mecánica Industrial, Gestión de mantenimiento, Instrumentación industrial, Mecatrónica y afines, para ser Practicante del Taller de Reparaciones.Las tareas que realizaras: Brindar soporte técnico y administrativo al flujo de proceso de ingreso de herramientas al taller de servicio. Involucrarse y apoyar el proceso de reparación de herramientas Coordinar la recepción y entrega de herramientas.Beneficios:- Tendras una renumeración (salario) de acuerdo a mercado- Cultura de trabajo sólida y oportunidades de crecimiento. (Somos una empresa Multinacional)Esperamos: Compromiso Organización Puntualidad Muchas ganas de aprender e involucrarse a nuestro negocioRequisitos:- Disponibilidad para trabajar de 08:00am a 17:00pm- egresados de las carreras técnicas de Mecánica, Mecánica Industrial, Gestión de mantenimiento, Instrumentación industrial, Mecatrónica y afines, para ser Practicante del Taller de Reparaciones.- Tambien Administración Industrial</t>
+  </si>
+  <si>
+    <t>Interseguro Asesor Comercial (Remoto)</t>
+  </si>
+  <si>
+    <t>Empresa Líder con experiencia en el rubro de Salud y Seguros, Somos Socios Comerciales a nivel nacional de Auna y Oncosalud y con gran alegría te decimos que, debido al crecimiento de nuestro grupo, estamos buscando a los mejores Talentos en Ventas como tú.¿QUÉ OFRECEMOS? Contrato en Planilla desde el primer día con 14 sueldos al año y todos los beneficios de ley (gratificaciones, vacaciones, CTS). Ingreso inmediato a planilla desde el primer día. Sueldo base competitivo, oscilando entre S/1200 y S/1500. Bono de por productividad. Bonos Semanales desde s/100 a s/400 a mas Comisiones ilimitadas, con montos que varían entre S/750 y S/2500 a más. Incentivos económicos y premios por desempeño destacado. Oportunidades de crecimiento y desarrollo profesional a través de evaluaciones trimestrales. Modalidad de trabajo desde casa (Home Office) y de manera Presencial. Entrenamiento constante para potenciar tus habilidades. Ambiente laboral excepcional. Pagos puntuales y confiables. 100% de cobertura en seguro oncológico. Descuentos en Marcas y Empresas Afiliadas a la red. Presupuesto Digitales.¿QUÉ BUSCAMOS? Experiencia previa en ventas, preferiblemente en rubros como Seguros, productos intangibles, créditos, etc. Habilidad para contactar y gestionar clientes con RUC 20, RUC 10 y DNI. Participación en reuniones diarias de forma virtual con el equipo de ventas y los clientes (a través de plataformas de video llamada). Generación diaria de prospectos de manera remota a través de redes sociales, correo electrónico, video llamadas y llamadas telefónicas. Cierre efectivo de ventas de la línea de productos de Auna Salud y Oncosalud Disponibilidad para trabajar de lunes a sábado en horarios de 9:00 AM a 6:30 (lunes a viernes) y de 9:00 AM a 1:00 PM (sábados). Habilidades destacadas de negociación y empatía.¡No esperes más y postula ahora para formar parte de nuestro equipo!</t>
+  </si>
+  <si>
+    <t>Izipay Ejecutivo Comercial / Trabajo REMOTO / LIMA</t>
+  </si>
+  <si>
+    <t>Somos YT Grupo, Empresa Líder con experiencia en el rubro de Medios de Pagos, Somos Socios Comerciales a nivel nacional de Izipay y con gran alegría te decimos que debido al crecimiento de nuestro grupo, estamos buscando a los mejores Talentos en Ventas como tú. ¡Únete a nuestro equipo de ventas en Izipay Perú!¿QUÉ OFRECEMOS? Contrato en Planilla FULL con 14 sueldos al año y todos los beneficios de ley (gratificaciones, vacaciones, CTS). Ingreso inmediato a planilla desde el primer día. Sueldo base competitivo, oscilando entre S/1200 y S/1500. Bono de Alimentacion por productividad. Bonos Semanales Aprox (s/.300). Comisiones ilimitadas, con montos que varían entre S/750 y S/2500. Incentivos económicos y premios por desempeño destacado. Oportunidades de crecimiento y desarrollo profesional a través de evaluaciones trimestrales. Modalidad de trabajo desde casa (Home Office). Entrenamiento constante para potenciar tus habilidades. Ambiente laboral excepcional. Pagos puntuales y confiables. 100% de cobertura en seguro oncologico. Descuentos en Marcas y Empresas Afiliadas a la red. Presupuesto Digitales.¿QUÉ BUSCAMOS? Experiencia previa en ventas remotas, preferiblemente en rubros como Medios de Pagos (P.O.S), Seguros, productos intangibles, créditos, etc. Habilidad para contactar y gestionar clientes con RUC 20, RUC 10 y DNI. Participación en reuniones diarias de forma virtual con el equipo de ventas y los clientes (a través de plataformas de video llamada). Generación diaria de prospectos de manera remota a través de redes sociales, correo electrónico, video llamadas y llamadas telefónicas. Cierre efectivo de ventas de la línea de productos de Izipay. Disponibilidad para trabajar de lunes a sábado en horarios de 9:00 AM a 6:30 PM (lunes a viernes) y de 9:00 AM a 1:00 PM (sábados). Habilidades destacadas de negociación y empatía.¡No esperes más y postula ahora para formar parte de nuestro equipo!</t>
+  </si>
+  <si>
+    <t>Analista de Integraciones - Hibrido</t>
+  </si>
+  <si>
+    <t>¡Sé parte de Stefanini!​En Stefanini somos más de 30.000 genios, conectados desde 41 países, haciendo lo que les apasiona y co-creando un futuro mejor.Analista de Integraciones - HibridoResponsabilidades y atribuciones: Dominio de desarrollos de aplicaciones Web en .NET y Net Core Dominio de programación en base de datos (Oracle, PLSQL) Dominio en lenguajes de representación de estructura XML y JSON Dominio en consumo y construcción de Servicios Web y API (SOAP y REST) Dominio en construcción de ETL's y Jobs Dominio en herramienta Integration Services Dominio en herramienta reporting Services Dominio de controladores de versionamiento de código (GIT)Requisitos y competencias: Bachiller en Ingeniería de Sistemas o afines con 3 años de experiencia. Ingles Intermedio Mínimo 03 años en desempeño de funciones similares. Conocimiento de metodologías ágiles y marco de trabajo SCRUM u otras. Conocimiento en Amazon Web Services Conocimiento en Azure DevOps y JIRA</t>
+  </si>
+  <si>
+    <t>SOPORTE TECNICO -INGENIERO EN SISTEMAS O TECNICO EN SISTEMAS</t>
+  </si>
+  <si>
+    <t>Pucusana, Lima</t>
+  </si>
+  <si>
+    <t>CONOCIMIENTOS TECNICOS REQUERIDOS: Sistemas Windows 7, 1 0 (Linux deseable) Conocimiento de ITIL Office 3 6 5, Server 2 0 0 8 y 2 0 1 2 nivel medio Raid, Terminal Services y Cloud Computing deseable Instalación y mantenimiento de dispositivos de entrada/salida y periféricos Mantenimiento Correctivo y preventivo para PC´s, instalación de multifuncionales Mantenimientos correctivos de equipos de cómputo (Laptop) Experiencia en redes y cableado estructurado Gestión de garantías Manejo de controla de tickets (Service Manager, Service now) Conocimiento de telefonía (configuraciones) Configuración de dispositivos móviles (Tablets, hand helds)FUNCIONES: Instalar y configurar la tecnología a los empleados de la empresa Realizar el mantenimiento periódico de sistemas Atención a usuarios en 1er. Nivel (Vip) Brindar asistencia a los empleados o clientes acerca de tecnología Detectar las averías en los sistemas y aplicaciones Realizar diagnósticos del mal funcionamiento del hardware y el software Encontrar soluciones a cualquier falla e implementarlas Reemplazar las partes dañadas o con averías en los equipos cuando sea necesario Atención remota Realizar la solicitud de las piezas nuevas cuando falten en el inventario Elaborar informes sobre el estado de los equipos y sistemas de la empresa Implementar y orientar a los diferentes equipos en la ejecución de nuevas aplicaciones o sistemas operativos Aprender sobre nuevas aplicaciones o sistemas operativos Realizar pruebas y evaluar nuevas aplicaciones antes de su implementación en los sistemas Configurar perfiles, correos electrónicos y accesos para los nuevos ingresos, además de brindar asistencia en todo lo relacionado con contraseñas Realizar revisiones de seguridad en todos los sistemas****Disponibilidad para rolar turnos, cubrir horas extras y para viajar a distintas sedes**** ****Sueldo S/1,800.000 a S/1,900.00****</t>
+  </si>
+  <si>
+    <t>PERSONAL DE LIMPIEZA VARON</t>
+  </si>
+  <si>
+    <t>PRINCIPALES FUNCIONES: Mantener en orden, limpio y desinfectados todos los ambientes del consultorio y aula de clase Limpieza, esterilización y empaquetado de instrumentales dentales. Verificar insumos (fecha de vencimiento y cantidad) Realizar inventarios. Compra de materiales e insumos periódicamente para el abastecimiento en general. Manejo de caja chica. Asistencia de odontólogos. Apoyo en la realización del registro de los pacientes atendidos, procedimientos odontológicos realizados. Recibir los trabajos para el envío al laboratorio dental, previa orden de trabajo, registrando fechas. Apoyo en las actividades del aula de clases (limpieza, orden, preparado de biomodelos para prácticas de los alumnos, etc.) Disposición para aprender y ser capacitados en tareas de mantenimiento y uso de equipos odontológicos cuando sea necesario. Realizar toda función o encargo que le asigne su Jefe inmediato y que conlleve a incrementar la eficiencia de la empresa.</t>
+  </si>
+  <si>
+    <t>Especialista de Entrenamiento (Master Trainer)</t>
+  </si>
+  <si>
+    <t>La empresa vivo mobile - Perú cuenta con más de 27 años de experiencia como marca líder en electrónica de consumo. Contamos con más de 400 millones de usuarios en todo el mundo, presencia en más de 60 países y 10 centros de investigación y desarrollo. Pioneros den el desarrollo de dispositivos 5G y patrocinador oficial del Mundial de fútbol FIFA QATAR 2022 y UEFA EURO 2024.vivo mobile cuenta con 7 centros globales de producción y manufactura, 380.000 centros de venta y servicio postventa a nivel mundiall. Nuestros logros en estos últimos años nos permiten decir que estamos ubicados dentro del TOP 4 de Smartphones más vendidos a nivel mundial.Nos encontramos en busca de un Especialista de Entrenamiento/Master Trainer para incorporarse al área de Retail.Este rol es para ti si eres: Universitario graduado, bachiller o Titulado de Administración, Marketing o afines. Mínimo 3 años de experiencia capacitándo y entrenando a la FFVV (+100 personas) de alguna marca. Indispensable experiencia previa en el rubro de celulares, línea blanca y/o marrón. Manejo de inglés y excel intermedio.Estas serán tus funciones: Capacitar la FFVV de la marca en temas de ventas, habilidades técnicas, skills, entre otros. Participar en el rendimiento de la FFVV en cuestiones de habilidades de venta. Realizar encuestas a la FFVV después de cada capacitación. Presentar KPI's de entrenamiento. Preparar el material y optimizar los materiales para cada capacitación. Apoyar al área comercial para alcanzar el objetivo de ventas de la FFVV. Otras funciones asignadas por el jefe del área.Debes tener en cuenta lo siguiente: Modalidad 100% presencial en San Isidro. Horario de Lunes a Viernes de 9:00am a 6:00pm. Contratación directa con vivo Perú. Planilla completa (régimen general) desde el 1° día de labores.</t>
+  </si>
+  <si>
+    <t>Vendedora de boutique Real Plaza Centro Civico</t>
+  </si>
+  <si>
+    <t>Cercado De Lima, Lima</t>
+  </si>
+  <si>
+    <t>Somos una de las tiendas más destacadas a nivel nacional, con 17 años de experiencia en el mercado, especializada en la venta de ropa de alta calidad para damas. Estamos en búsqueda de promotoras de ventas con disponibilidad inmediata para trabajar con nosotros en la boutique de: Centro comercial Real Plaza Centro cívico (Av. Garcilaso de la Vega 1337, Lima)Requisitos: Mujeres entre 28 y 50 años. Vivir en zonas aledañas al centro comercial Real Plaza Centro cívico (de preferencia). Contar con una experiencia mínima de 6 meses en el rubro de ventas, de preferencia en el área retail (deseable). Manejo de POS (pagos con tarjetas de crédito/débito). Conocimiento de caja. Ser dinámica, tener facilidad de palabra, muchas ganas de trabajar, servicio y atención al cliente con buena actitud. Disponibilidad inmediata para laborar en el horario rotativo de lunes a domingos con 1 día de descanso.Funciones: Brindar la debida asistencia y soporte a los clientes en la tienda. Operar el sistema de caja, procesar pagos y generar recibos. Realizar conteos periódicos de las prendas en tienda, asegurando que coincidan con las del sistema y estén actualizadas. Mantener la tienda limpia y ordenada durante la apertura, asegurando que los espacios de venta estén en condiciones óptimas. Otras funciones que se le asignen en la tienda.Beneficios: Sueldo básico (S/.1025) + comisiones. Ingreso a planilla desde el primer día de trabajo (gratificaciones + asignación familiar + vacaciones pagadas + CTS). Pagos puntuales y quincenales. Reparto de utilidades. Línea de carrera y desarrollo: formar parte de una empresa sólida y líder en el rubro textil.¡Anímate a postular y a ser parte de nuestro gran equipo! 🙌</t>
+  </si>
+  <si>
+    <t>Vendedora de Boutique Joaquim Miro Jockey Plaza</t>
+  </si>
+  <si>
+    <t>JOAQUIM MIRO empresa líder en el rubro textil se encuentra en búsqueda de señoritas para el puesto de promotoras de ventas en nuestras boutiques. Buscamos señoritas que sean positivas ante las adversidades, entusiastas, comunicativas, responsables, que tengan visión de crecimiento a corto plazo y sobre todo con disponibilidad inmediata para trabajar con nosotros en: Centro comercial Jockey Plaza(Av. Javier Prado Este 4200, Surco)Requisitos: Mujeres entre 28 y 50 años. Vivir en zonas aledañas al centro comercial Jockey Plaza (de preferencia). Contar con una experiencia mínima de 6 meses en el rubro de ventas, de preferencia en el área retail (deseable). Manejo de POS (pagos con tarjetas de crédito/débito). Conocimiento de caja. Ser dinámica, tener facilidad de palabra, muchas ganas de trabajar, servicio y atención al cliente con buena actitud. Disponibilidad inmediata para laborar en el horario rotativo de lunes a domingos con 1 día de descanso.Funciones: Brindar la debida asistencia y soporte a los clientes en la tienda. Operar el sistema de caja, procesar pagos y generar recibos. Realizar conteos periódicos de las prendas en tienda, asegurando que coincidan con las del sistema y estén actualizadas. Mantener la tienda limpia y ordenada durante la apertura, asegurando que los espacios de venta estén en condiciones óptimas. Otras funciones que se le asignen en la tienda.Beneficios: Sueldo básico (S/.1025) + comisiones. Ingreso a planilla desde el primer día de trabajo (gratificaciones + asignación familiar + vacaciones pagadas + CTS). Pagos puntuales y quincenales. Reparto de utilidades. Línea de carrera y desarrollo: formar parte de una empresa sólida y líder en el rubro textil.¡Anímate a postular y a ser parte de nuestro gran equipo! 🙌</t>
+  </si>
+  <si>
+    <t>Vendedora de boutique en Plaza San Miguel</t>
+  </si>
+  <si>
+    <t>San Miguel, Lima</t>
+  </si>
+  <si>
+    <t>Somos una de las tiendas más destacadas a nivel nacional, con 17 años de experiencia en el mercado, especializada en la venta de ropa de alta calidad para damas. Estamos en búsqueda de promotoras de ventas con disponibilidad inmediata para trabajar con nosotros en la boutique de: Centro comercial Plaza San Miguel (Av. La Marina 2100, San Miguel)Requisitos: Mujeres entre 28 y 50 años. Vivir en zonas aledañas al centro comercial Plaza San Miguel (de preferencia). Contar con una experiencia mínima de 6 meses en el rubro de ventas, de preferencia en el área retail (deseable). Manejo de POS (pagos con tarjetas de crédito/débito). Conocimiento de caja. Ser dinámica, tener facilidad de palabra, muchas ganas de trabajar, servicio y atención al cliente con buena actitud. Disponibilidad inmediata para laborar en el horario rotativo de lunes a domingos con 1 día de descanso.Funciones: Brindar la debida asistencia y soporte a los clientes en la tienda. Operar el sistema de caja, procesar pagos y generar recibos. Mantener la tienda limpia y ordenada durante la apertura, asegurando que los espacios de venta estén en condiciones óptimas. Realizar conteos periódicos de las prendas en tienda, asegurando que coincidan con las del sistema y estén actualizadas. Otras funciones que se le asignen en la tienda.Beneficios: Sueldo básico (S/.1025) + comisiones. Ingreso a planilla desde el primer día de trabajo (gratificaciones + asignación familiar + vacaciones pagadas + CTS). Pagos puntuales y quincenales. Reparto de utilidades. Línea de carrera y desarrollo: formar parte de una empresa sólida y líder en el rubro textil.¡Anímate a postular y a ser parte de nuestro gran equipo! 🙌</t>
+  </si>
+  <si>
+    <t>Ingeniero/a Planeamiento Mantenimiento</t>
+  </si>
+  <si>
+    <t>Cajabamba, Cajamarca</t>
+  </si>
+  <si>
+    <t>Pan American Silver proporciona una mayor exposición a la plata a través de grandes reservas de plata y catalizadores para aumentar la producción de plata.NUESTRO PROPOSITOProducimos los metales que la gente necesita. Creemos que la plata es un metal fundamental, ya que el mundo avanza hacia la descarbonización y la electrificación. Estamos comprometidos a operar nuestro negocio de acuerdo con nuestros valores fundamentales, que puede ver a continuación.NUESTRA VISION"Ser el principal productor de plata del mundo, con una reputación de excelencia en descubrimiento, ingeniería, innovación y desarrollo sostenible".NUESTROS VALORESSALUD Y SEGURIDADNos comprometemos a proporcionar un lugar de trabajo seguro y saludable para todos nuestros empleados y contratistas.HONESTO Y JUSTOPrometemos llevar a cabo nuestros asuntos comerciales libres de favoritismo, miedo, coerción, discriminación o acoso.OPERACIONES RESPONSABLESNos comprometemos a operar de manera responsable y ética.COMUNICACIÓN CLARANuestro objetivo es brindar una divulgación completa, justa, precisa, oportuna y comprensible a nuestros grupos de interés.NUESTRAS OPERACIONES EN PERÚ:Shahuindo, operación de oro a cielo abierto, ubicada en la provincia de Cajabamba en el departamento de CajamarcaLa Arena, operación de oro a cielo abierto, ubicada en la provincia de Sanchez Carrión en el departamento de La Libertad.Huaron, operación subterránea polimetálica, que producen contratado de plomo, cobre y zinc con altos contenido de plata, ubicada en la provincia de Cerro de Pasco en el departamento de PascoEstamos en permanente búsqueda de personas talentosas y dispuestos a afrontar nuevos retos, que puedan crecer con nosotros y formar parte de la familia de Pan American Silver en Perú¡Trabaja en Pan American Silver Perú! Funciones: Planificar y gestionar las actividades de mantenimiento de manera integral a corto, mediano y largo plazo, bajo una estructura de costo y presupuesto. Gestionar la disponibilidad de los recursos necesarios para cada actividad, brindando un soporte óptimo y rentable a las áreas operativas (flota de equipos de Operaciones Mina y Planta Procesos (ADR). Elaborar y revisar los presupuestos y Forecast de costos directos e indirectos bajo los escenarios planteados por planeamiento mina y procesos. Elaborar y gestionar las actividades de mantenimiento integral, mediante la planificación de recursos y servicios (internos y externos). Elaborar y revisar los reportes de costos directos e indirectos (Presupuesto vs Real). Elaborar y revisar todos los reportes mensuales de control y seguimiento. Elaborar reporte de componentes de protección según flota/proyecto. Ejecutar auditorias de Gestión de Activos y Mantenimiento Buscar e implementar nuevos procesos y/o tecnologías.Conocimientos: Planeamiento estratégico y operativo. Teoría fundamental de la Mecánica Técnicas de planificación del mantenimiento preventivo y predictivo, además Software aplicado a minería y a proyectos. Office e inglés Intermedio DS 024-2016-EM con su modificatoria DS N° 023-2017-EM, Ley 29783 de Seguridad y Salud en el Trabajo y Medio Ambiente), principalmente a los aspectos referidos a las obligaciones del trabajador. Requisitos: Profesional titulado, colegiado y habilitado de las carreras de Ingeniería Industrial, Mecánica, Mecánica Eléctrica con estudios de especialización en Gestión de Mantenimiento e Implementación de Estrategias en Activos. Requiere de 04 años de experiencia en puesto igual o similar, de preferencia tener experiencia laboral en operaciones mineras y/o en empresas industriales manufactureras. Licencia de conducir</t>
+  </si>
+  <si>
+    <t>Funcionario de Negocios - Banca PYME</t>
+  </si>
+  <si>
+    <t>Somos una entidad financiera con más de 25 años de experiencia en el mercado. Nos enfocamos en atender las necesidades integrales de nuestros clientes de pequeña y mediana empresa, acompañándolos en su crecimiento de forma ágil, cercana y eficiente.Actualmente nos encontramos en la búsqueda de los mejores talentos para sumarse a nuestra #TOTALfamilia como FUNCIONARIO DE NEGOCIOS. Si te apasionan los retos y buscas crecer en el rubro financiero ¡Esta es tu oportunidad! Postula con nosotros y forma parte de una de las mejores empresas para trabajar en el Perú según #GPTW.Requisitos: Técnico egresado o Bachiller universitario de las carreras de Administración, Negocios y afines. Manejo de office a nivel intermedio. Experiencia mínima de 2 años consecutivos en servicios financieros. Experiencia en administración de cartera banca PYME, banca empresa, préstamos capital de trabajo, factoring (indispensable). Modalidad de trabajo: Presencial (trabajo de campo y administrativo). Disponibilidad para trabajar de forma presencial de lunes a viernes de 9:00am a 6:00pm Persona orientada a resultadas y proactiva.Funciones: Prospectar clientes a través de llamadas y otras herramientas. Realizar visitas a clientes prospecto o de cartera. Dar seguimiento y administrar la cartera de clientes banca empresa. Identificar nuevas oportunidades de negocio que permitan el crecimiento de cartera a cargo. Realizar todas las actividades asociadas para la formalización de nuevos clientes, así como el mantenimiento de la cartera.Beneficios: Salario acorde al mercado: Fijo + variable + Bono de movilidad Ingreso a planilla completa desde el primer día de trabajo. Todos los beneficios de acuerdo a ley (Seguro, CTS, gratificación, utilidades) Capacitaciones constantes. Excelente clima laboral. EPS cubierta al 50% Oportunidad de Crecimiento Plan Oncológico</t>
+  </si>
+  <si>
+    <t>AREA COMERCIAL</t>
+  </si>
+  <si>
+    <t>SOMOS UNA EMPRESA CON ALTOS ESTÁNDARES DE CALIDAD Y SERVICIO AL CLIENTE FINAL, CON AMPLIA EXPERIENCIA COMERCIAL EN EL MERCADO PERUANO Y NOS ENCONTRAMOS SOLICITANDO PERSONAL PARA EL ÁREA DE VENTAS NUETROS EJECUTIVOS COMERCIALES DEBEN TENER EL SIGUIENTE PERFIL:Disponibilidad para trabajo presencialEntusiasmo y honestidadBuena presencia y actitud positivaCOMO EMPRESA OFRECEMOS:Línea de productos de alta calidad y reconocidos en el mercadoCapacitación constanteHorarios flexibles, medio tiempo o tiempo completoExcelente ambiente de trabajoOportunidad de hacer línea de carreraVERIFICA QUE TUS DATOS DE CONTACTO EN TU HOJA DE VIDA ESTÉN ACTUALIZADOS PARA CONTACTARTE Y COORDINAR UNA ENTREVISTA.</t>
+  </si>
+  <si>
+    <t>Montacarguistas de Almacén - Campaña Cámara Helados</t>
+  </si>
+  <si>
+    <t>¡Oportunidad Laboral!Ubicación: Fábrica LimaTiempo: CompletoReporta a: Warewhouse SupervisorFunción PrincipalRealizar las operaciones de almacenamiento, traslado, preparación e inventario; necesarias para suministrar los materiales en condiciones óptimas de uso, brindando un buen nivel de servicio tanto al cliente interno como externo de acuerdo a los estándares de seguridad, calidad, costo y servicio.Funciones:- Realizar el traslado y almacenamiento de productos y/o materiales según ordenes de traslado (OTs), dando conformidad del stock almacenado en descripción, cantidad, calidad, lote y ubicación de destino, empleando equipos hidraulicos, eléctricas y de combustión.- Realizar preparación en picking y pallet completo de productos y/o materiales, según ordenes de traslado (OT´S), dando conformidad del stock preparado en descripción, cantidad, calidad, lote, ubicación de procedencia y destino; empleando equipos hidráulicas, eléctricos y de combustión.- Control de vencimientos de productos permitiendo la trazabilidad y seguimiento según FEFO.- Realizar la toma de inventarios.- Cumplir las normas de Buenas Prácticas de Almacenamiento, 5s, Seguridad, Salud Ocupacional y Medio Ambiente , Calidad.- Manejo de equipos de Radio Frecuencia, para las operaciones de preparación, reabastecimiento, traslados, almacenamiento, movimientos internos y consultas de pallets y ubicaciones; según indicaciones del supervisor y de acuerdo a las operaciones de los almacenes y los caso que aplique LT10.- Realizar actividades de limpieza dentro del almacén.- Realizar el check list y monitorear el correcto funcionamiento de los equipos. Reportando cualquier desviación de manera inmediata.- Asegurar el correcto despacho y reabastecimiento al picking según FEFO.- Utilizar de manera eficiente y segura los equipos entregados (Radio Frecuencia, equipos hidraulicas, electricos y de combustión).- Realizar el recojo y reacondicionamiento de las cajas abolladas para dejarlas en libre disponibilidad para despacho.Requisitos que te harán exitoso:- Mínimo 02 año laborando en almacenes, con deseable conocimiento en consumo masivo, farmaceuticas y operadores logisticos. Manejo de equipos hidráulicos, eléctricas (manlift, transpaleta, apilador simple y doble fondo, push pull) y de combustión (montacarga). - Secundaria Completa - Conocimiento de Buenas Prácticas de Almacenamiento. (BPA) - Conocimiento de Normas de Seguridad y Medio Ambiente.- Disponibilidad para trabajar en Cercado de Lima ( Fábrica Donofrio)Si cumples con los requisitos, postula y completa tus datos a través del siguiente link:https://forms.office.com/e/fterdaD5T4Nos pondremos en contacto contigo apenas recibamos tu postulación.¡Éxitos!</t>
+  </si>
+  <si>
+    <t>EJECUTIVO COMERCIAL - Soluciones de Negocio - TI</t>
+  </si>
+  <si>
+    <t>OBJETIVO DEL PUESTO:Gestión comercial: estrategia y ejecución. Enfocarse en generar y desarrollar relaciones de negocio, ventas, post venta y satisfacción del cliente; para incrementar la facturación y la rentabilidad de la empresa.FUNCIONES: Identificar y desarrollar oportunidades comerciales en las cuentas y/o territorios asignados. Realizar labores de prospección de ventas (en forma tradicional y por medios digitales), calificar prospectos y desarrollar el ciclo comercial empleando la metodología de Venta Consultiva. Pronóstico y seguimiento de las métricas de las cuentas. Comunicar de forma clara y continua el progreso de las oportunidades comerciales (semanal, mensual y trimestralmente), en relación a los objetivos asignados. Cumplir y exceder las metas y presupuesto de ventas asignados. Establecer proactivamente contacto con potenciales clientes, identificar necesidades y definir la propuesta de valor. Identificar las actividades necesarias para el proceso de venta específico, definir el cronograma estimado y elaborar la propuesta comercial. Realizar seguimiento y cierre de ventas con los prospectos. Actualizar en el CRM todas las actividades realizadas con los prospectos. Coordinar continuamente con los equipos de Preventa, Marketing y la Gerencia. Participar en la formulación del Plan de Ventas para el sector asignado.CONOCIMIENTOS: Profesional de las carreras de Administración de Empresas, Ingeniería Industrial o afines. Estudios de metodología de ventas, técnicas de venta y ciclo comercial. Conocimiento del sector TI. Manejo del proceso de Venta Consultiva. Conocimientos de procesos de ERP, Business Intelligence, Analytics, Supply Chain Management (WMS, TMS) y/o Mejora y Automatización de Procesos.COMPETENCIAS: Proactivo, empático, ético. • Capacidad de relacionarse a nivel gerencial. • Trabajo en equipo. • Disciplina y compromiso con objetivos. • Capacidad de comunicarse efectivamente en forma oral y escrita. • Orientado a resultados. • Afán de superación y logro. • Liderazgo. • Influencia y negociación. • Preparar y realizar presentaciones de impacto. • Pensamiento estratégico, planificación, ejecución táctica-operativa .EXPERIENCIA: Experiencia en venta de soluciones de negocio (ERP, Business Intelligence, Analytics, Supply Chain Management (WMS, TMS) y/o Mejora y Automatización de Procesos) en Perú, con objetivos de cuota de venta. Mínimo dos años en rol de vendedor. Venta a empresas medianas. Rol comercial en empresas comercializadoras de software o integradores.IDIOMAS: Inglés Intermedio o avanzadoOTROS: Disponibilidad para viajar al interior del país o al extranjero.</t>
+  </si>
+  <si>
+    <t>Administrador de base de datos</t>
+  </si>
+  <si>
+    <t>¡Únete a nuestro equipo como Administrador de Base Datos!Misión del puesto: Como Administrador de Base de Datos, su principal responsabilidad será garantizar la óptima administración y funcionamiento de las bases de datos, tanto en entornos Azure como On-Premise, asegurando la integridad, disponibilidad, y seguridad de los datos. Deberá aplicar su profundo conocimiento en bases de datos relacionales, como SQL Server y SAP Business One for HANA, para gestionar y optimizar el rendimiento de los sistemas. Además, será responsable de evaluar e implementar nuevas tecnologías y soluciones que mejoren la infraestructura de datos. El rol también incluye la participación activa en proyectos de implementación de Data Lake, la creación y administración de Cubos OLAP (SSAS), el desarrollo y mantenimiento de Data Warehouses, y la gestión de procesos ETL (SSIS). Se espera que el candidato cuente con habilidades analíticas avanzadas para interpretar datos y apoyar la toma de decisiones estratégicas, contribuyendo al crecimiento y éxito de la organización.Principales Actividades: Gestión y Mantenimiento de Bases de Datos: Administra, monitorea y mantiene las bases de datos de la organización, asegurando su correcto funcionamiento. Implementación y Soporte de Proyectos de Data Lake y Data Warehouse: Participa en la implementación de soluciones de Data Lake y Data Warehouse, y apoya en la gestión de Cubos OLAP (SSAS) y procesos ETL (SSIS). Evaluación e Implementación de Nuevas Tecnologías: Evalúa y propone nuevas tecnologías y soluciones para la mejora continua de la infraestructura de datos. Aseguramiento de la Seguridad de los Datos: Implementa y supervisa medidas de seguridad para proteger las bases de datos contra accesos no autorizados y ciberamenazas. Optimización del Rendimiento de las Bases de Datos: Optimiza el rendimiento de las bases de datos para asegurar una operación fluida y eficiente. Gestionar en el monitoreo, documentación y mantenimiento de las Base de Datos de la Organización.Requisitos: Titulado en Ingeniería de Sistemas o de Informática Experiencia en cargos similares mínimo 2 años Experiencia mínima indispensable de 2 años en la creación y análisis de bases de datos (Obligatorio) Experiencia minima de 2 años en Administración de Base de datos (Obligatorio) Buena comunicación en todos los niveles de la organización (Obligatorio)Conocimientos: Conocimientos en administración de BD SQL Server (Avanzado - Indispensable) Administración de Servidores (Linux o Wnidows) (Básico) Conocimiento de Cloud (Azure, Google Cloud) (Intermedio) Conocimiento de Metodologías Agiles (SCRUM) (Intermedio) Conocimientos en SSIS, SSAS (Intermedio - Indispensable) Conocimiento de Tableau y Power BI (Intermedio) Conocimientos en PL/SQL, Transact SQL (Intermedio) Conocimiento en la elaboración de informes y dashboards (Intermedio) Conocimientos básicos en Shell, R, Perl, Python (Básico)Beneficios: Beneficios Cineplanet. Beneficios del grupo Intercorp. Trabajo híbrido. Acceso a plataformas de capacitación"Cineplanet es una empresa comprometida con la igualdad de oportunidades entre hombres y mujeres. Todos los(as) postulantes serán considerados(as) sin importar su origen étnico, sexo, edad, estado civil, orientación sexual, religión, discapacidades, nacionalidad o condición económica”</t>
+  </si>
+  <si>
+    <t>DATA MAPPING / DATA ENTRY (W/ ENGLISH)</t>
+  </si>
+  <si>
+    <t>Do you like challenges?We are looking for talents like you!Our client is a growing technology company with a strong focus on data. A leader in driving the best economic results for those interested in food service, with more than 20 years of experience in the industry, providing the most complete set of purchasing tools in the industry.We believe that each collaborator is a fundamental piece for achieving results, which is why we encourage the development of our talents, enhancing your problem-solving and teamwork capacity.In addition, you will have an active participation in the entire flow of our process with the help of a successful team that will listen to you and put your innovative ideas into action. RESPONSIBILITIES Categorize and Catalog products purchased by restaurants Work with the data management team to fix system data issues Contribute to the improvement of the data management and cataloging processQUALIFICATIONS Knowledge of computers, software and communication skills. Professional communication skills for working with co-workers. Ability to organize work and work environment for focused effort. Detail oriented and analytical. Strong team player. Food and beverage product knowledge is a PLUS. Experience purchasing for restaurants a PLUS. Requisitos: KNOWLEDGE INTERMEDIATE conversational English is REQUIRED. Microsoft 365 tools at an intermediate level, especially Excel. Beneficios The hiring will be on a freelance basis under a receipt for professional fees (RRHH). The project will have a duration of 3 to 6 months at most. The working hours will be from 9 a.m. to 6 p.m. The job is 100% remote.</t>
+  </si>
+  <si>
+    <t>Asesor de Belleza</t>
+  </si>
+  <si>
+    <t>Responsabilidades: Atender a los clientes a través de asesoramiento de acuerdo a sus necesidades ofreciendo los productos L’Occitane. Funciones Asesorar al cliente en todas las líneas de productos que ofrecemos. Maximizar cada venta. Realizar cobro, cuadre y cierre de caja. Realizar transferencias de producto. Control de inventario. Mantener la imagen de la tienda con el correcto perchaje de producto, cambio de vitrina y limpieza. Beneficios: Ingreso directo a Planilla Sueldo fijo y paquete de comisiones superior al promedio de mercado por logro de metas. Signación familiar 30 días de vacaciones cumplido el aniversario Gratificaciones CTS Capacitación constante Descuentos en productos de la marca</t>
+  </si>
+  <si>
+    <t>Analista de Finanzas (Análisis de datos) - Remoto</t>
+  </si>
+  <si>
+    <t>Santa Anita, Lima</t>
+  </si>
+  <si>
+    <t>Tecsup, institución líder en educación tecnológica, cuenta 40 años en el mercado formando profesionales innovadores y éticos.En esta oportunidad se busca un Analista de Finanzas con las siguientes características:Perfil Profesional: Bachiller de la carrera de Economía, Administración, Ing. Industrial, Ing. Sistemas o afines. Deseable contar con diplomado o especialización en Finanzas, Business Analytics o afines Contar con 2 años de experiencia en áreas de planeamiento financiero, Riesgos, Business Intelligence o afines. Manejo de Business Intelligence (Power Bi) - Avanzado (excluyente) Manejo de Power Pivot, Query nivel - Intermedio (excluyente) Excel - avanzadoFunciones: Análisis de indicadores gerenciales y operativos de los diferentes portafolios de cobranzas Apoyar en el trabajo operacional, manejo y análisis de la base de datos de cobranzas. Entender desviaciones y oportunidades. Coordinaciones con el área de cobranzas para definir las tácticas de gestión necesarias para maximizar el recupero de cobranza. Responsable del seguimiento de los resultados en distintos portafolios de cobranzas Apoyo en el proceso para la actualización de información en el sistema BI. Apoyar en el proceso de implementación de Datamart de cobranzas Analizar, interpretar y evaluar de forma crítica datos e información relacionados a las funciones de su puesto para una óptima toma de decisión.Ofrecemos: Pertenecer a una institución acreditada internacionalmente. EPS Pacífico al 100% para el colaborador y 50% para familiar directo, a partir del 7mo mes. Pago a 15na y fin de mes. Capacitación permanente. Línea de desarrollo. Programa de actividades de camaradería y familiares.Importante considerar: Modalidad de trabajo: Remoto (Vivir en Lima) Horario de trabajo: lunes a viernes de 08:00 a 18:00 horas. Disponibilidad inmediata.</t>
+  </si>
+  <si>
+    <t>Consultor de Calidad Educativa (Por proyecto)</t>
+  </si>
+  <si>
+    <t>PERFIL PROFESIONAL: Profesional de la carrera de psicología y/o licenciado en educación. Experiencia de 5 años en la docencia a nivel superior. Dominio de Excel y World a nivel Intermedio. Manejo de plataformas educativas virtuales. Disponibilidad inmediata.ACTIVIDADES: Asesoría a docentes en metodología de enseñanza. Presentación de informes según visitas a clases y acompañamiento a docentes. Retroalimentar a los docentes sobre oportunidades de mejora a través de una comunicación asertiva.CONSIDERACIONES: Ubicación: Santa Anita Laborar 20 horas a las semana de acuerdo a la necesidad"En Tecsup nos comprometemos con la igualdad de oportunidades. Todas las personas serán consideradas en el proceso de postulación."</t>
+  </si>
+  <si>
+    <t>PRODUCT DESIGNER (FIGMA EXPERT)</t>
+  </si>
+  <si>
+    <t>What You’ll Do Own a comprehensive product &amp; UX design function. Influence the product roadmap, user workflows, and current designs, translating complex requirements into simple, intuitive user interfaces. Collaborate closely with the founding team to bring features from ideation, sketches, wireframes, and high-fidelity designs to development and production. Conduct user research, develop personas, and validate designs through usability testing in partnership with the product team. Continuously iterate on and improve existing product designs. Drive much of the product management, strategizing with developers and tech writers to define high-level vision, strategy, and goals for our products. Manage and prioritize multiple projects across various platforms and teams. Must Haves: Demonstrated expertise in user-focused thinking through the creation of prototypes and high-fidelity designs. Strong portfolio showcasing UX, user-interface design and design systems. Highly organized with exceptional communication skills to convey ideas and design principles clearly. Proven ability to work independently in a fast-paced, dynamic environment. Extensive experience and proficiency in Figma. Ability to think strategically like a product manager, with the ability to interpret data and wireframe user journeys. Requisitos: Requirements 3-5 years of relevant experience in designing digital products and systems. Experience leading product design strategy from inception to completion. Ability to impact both user and business goals through design. Experience contributing to the visual and technical direction of a design system. Experience in fintech or real estate is a plus. Fluent English B2+ Responsibilities: Strategize with developers and product owners to define high-level vision, strategy, and goals for our products. Drive research efforts and prioritize customer insights using best practices in research. Construct user flows, wireframes, and prototypes to effectively communicate design concepts for validation. Provide design direction and constructive feedback to other designers on the team. Contribute to and positively shape the design team’s culture through collaboration, feedback, and process iteration. Beneficios We offer full-time payroll employment from day one, as well as 100% medical coverage in the base plan for all our employees through the agreement we maintain with the insurer Rimac EPS.Invest time in your success by training yourself. If you wish, you can use one of our uDemy licenses to train at your own pace.Want to work in the office for a few days? No problem, just let us know which days, and we'll set up your workspace in our San Isidro office. But don't worry, the work is 100% remote.</t>
+  </si>
+  <si>
+    <t>Técnico en Sistemas - Soporte TI</t>
+  </si>
+  <si>
+    <t>Técnico en Sistemas - Soporte ITBuscamos un Técnico en Sistemas - Soporte IT experimentado para unirse a nuestro equipo. El candidato ideal tendrá un sólido conocimiento de sistemas operativos, redes informáticas y administración de servidores.Responsabilidades Configurar y conectar computadoras a redes informáticas. Configurar y administrar G-Suite, File server, servidores Active Directory y dominio de MS Office. Proporcionar soporte técnico a los usuarios. Resolver problemas de hardware y software. Mantener los sistemas informáticos actualizados y seguros. Manejo y configuración de tecnologías TP-LINK, D-LINK, CISCO, CCTV, HIKVISION, etc Conocimientos en servidores: DHCP, DNS, FILE SERVER.Requisitos Egresado o Técnico en Sistemas / Informática o campo relacionado. +1 año de experiencia en soporte técnico. Sólido conocimiento de sistemas operativos (Windows, Linux, Android, macOS). Experiencia en configuración y administración de redes informáticas. Conocimientos en servidores. Excelentes habilidades de comunicación y resolución de problemas. Capacidad para trabajar de forma independiente y como parte de un equipo.Beneficios Planilla desde el primer día con todos los beneficios acorde a ley. Bonos por desempeño. Oportunidad de línea de carrera profesional y oportunidades de crecimiento. Gran ambiente laboral y nuestro equipo lo confirma.re Aprendizaje continuo en rubro de tecnología y marketing experiencial.</t>
+  </si>
+  <si>
+    <t>Asesor Técnico Aditivos - Minería</t>
+  </si>
+  <si>
+    <t>En QSI Perú, nos encontramos en la búsqueda de un Asesor Técnico de Aditivos Minería para la sección de Minería y Productos Construcción. Somos una empresa peruana con más de 80 años de trayectoria, brindando asesoría y productos de la más alta calidad para los rubros de Construcción, Minería, Equipos Industriales, Textil y Geosistemas.Requisitos: Estudios técnicos completos en las carreras de Laboratorio, Concreto y Asfalto. Microsoft Office a nivel básico intermedio. Conocimientos en ensayos de laboratorio y muestreo de productos Experiencia mínima de 2 años en desarrollo de mezclas prueba a escala laboratorio, incluyendo ensayos en estado fresco y endurecido para shotcrete. Contar con brevete categoría A1.Funciones: Visita a clientes de mina para muestreo, elaboración de morteros y seguimiento de lanzado con aditivos QSI. Desarrollo de Mezclas prueba a escala laboratorio, incluyendo ensayos en estado fresco y endurecido para shotcrete. Elaborar reportes técnicos de informes de resultados según los requerimientos especificados. Elaboración y reporte de Actividades Planificadas de Trabajo Asistencia técnica en Unidades Mineras para monitoreo de diseños de shotcrete con aditivos QSI. Gestionar el manejo y cuidado de equipos de Laboratorio, reportando consumibles y fechas de mantenimiento. Gestionar el mantenimiento de las Unidades Móviles del área, y el control de herramientas asignadas para cada unidadBeneficios: Todos los beneficios de ley Eps cubierta al 65% Día libre por cumpleaños. Otros según política interna.¡Éxitos en tu postulación!</t>
+  </si>
+  <si>
+    <t>KAM Canal Moderno</t>
+  </si>
+  <si>
+    <t>KAM - Canal ModernoGestionar un grupo de cuentas identificadas para alcanzar los niveles de objetivos de ventas designados mediante el desarrollo de negocios rentables con clientes nuevos y existentes. Responsable del proceso de venta directa.Qué hará ?- Preparar planes y estrategias de ventas a corto y largo plazo utilizando los programas de ventas y marketing disponibles para alcanzar los objetivos designados.-Negociar el plan y las condiciones con el cliente.-Presentar nuevos productos/servicios a los clientes y organizar visitas a clientes actuales y potenciales para impulsar la expansión de las ventas.-Poseer y aplicar un conocimiento detallado del producto, así como un conocimiento profundo del negocio del cliente.-Mantener y conservar relaciones a largo plazo con clientes ya establecidos.-Garantizar que los clientes reciban un servicio de alta calidad.-Involucrar al representante de ventas apropiado cuando los clientes tengan necesidades de servicio adicionales.¿Quién eres?-Licenciatura en administración, ingeniería industrial, marketing o campos relacionados.-Experiencia previa en productos de gran consumo en el canal moderno.-Experiencia previa en puestos similares no inferior a 3 años.</t>
+  </si>
+  <si>
+    <t>¡Convocatoria Masiva Operarios de Almacén - Campaña Cámara Helados</t>
+  </si>
+  <si>
+    <t>¡Oportunidad Laboral!Ubicación: Fabrica Lima Reporta a: Warehouse Supervisor Objetivo de la posición: Realizar las operaciones de almacenamiento, traslado, preparación e inventario; necesarias para suministrar los materiales en condiciones óptimas de uso, brindando un buen nivel de servicio tanto al cliente interno como externo de acuerdo a los estándares de seguridad, calidad, costo y servicio.Funciones: Realizar el traslado y almacenamiento de productos y/o materiales según ordenes de traslado (OTs), dando conformidad del stock almacenado en descripción, cantidad, calidad, lote y ubicación de destino, empleando carretillas hidráulicas y eléctricas. Realizar preparación en picking y pallet completo de productos y/o materiales, según ordenes de traslado (OTs), dando conformidad del stock preparado en descripción, cantidad, calidad, lote, ubicación de procedencia y destino; empleando carretillas hidráulicas y eléctricas. Realizar la toma de inventarios. Control de vencimientos de productos permitiendo la trazabilidad y seguimiento según FEFO. Cumplir las normas de Buenas Prácticas de Almacenamiento, 5s, Seguridad, Salud Ocupacional y Medio Ambiente , Calidad. Manejo de equipos de Radio Frecuencia, para las operaciones de preparación, reabastecimiento, traslados, almacenamiento, movimientos internos y consultas de pallets y ubicaciones; según indicaciones del supervisor y de acuerdo a las operaciones de los almacenes y los caso que aplique LT10. Realizar el check list y monitorear el correcto funcionamiento de los equipos. Reportando cualquier desviación de manera inmediata. Asegurar el correcto despacho y reabastecimiento al picking según FEFO. Levantar cualquier observación en los productos y/o materiales. Utilizar de manera eficiente y segura los equipos entregados (Radio Frecuencia, carretilla hidraulicas y electricas). Realizar el recojo y el reacondicionamiento de las cajas abolladas para dejarlas en libre disponibilidad para despacho. Realizar el control y registro diario de temperatura del almacén y reportar cualquier desviación. Para el caso de Cámara Helados realizar el registro de permanencia.Requisitos que te harán exitoso: Mínimo 01 año laborando en almacenes como operario de almacén ó 01 año como operario de almacén en Nestlé, con deseable conocimiento en consumo masivo, farmaceuticas y operadores logisticos. Manejo carretillas hidráulicas y eléctricas. Secundaria Completa Conocimiento de Buenas Prácticas de Almacenamiento. (BPA) Conocimiento de Normas de Seguridad y Medio Ambiente. Disponibilidad para trabajar en Cercado de Lima en horarios rotativosSi cumples con los requisitos, postula y completa tus datos a través del siguiente link:https://forms.office.com/e/6YbhbwjHEbNos pondremos en contacto contigo apenas recibamos tu postulación.¡Éxitos!</t>
+  </si>
+  <si>
+    <t>Supervisor SSOMA / Papelera / Ate</t>
+  </si>
+  <si>
+    <t>Ate, Lima</t>
+  </si>
+  <si>
+    <t>Somos Schroth Corporación Papelera S.A.C. una empresa líder dedicada a la comercialización de la más amplia gama de productos papeleros de la mejor calidad. En el mercado nacional contamos con marcas como "Gallo" y "Kero", reconocidas por su calidad. Estamos en búsqueda de tu talento. No esperes mas para postularte, únete a esta gran familia.OBJETIVODar cumplimiento a las disposiciones y medidas preventivas, así como actos y condiciones inseguras que atenten contra la vida y salud de los colaboradores; asimismo, velar por la seguridad y protección de las instalaciones y bienes de la empresa.REQUISITOS- Titulado en Ingeniería Industrial, Ingeniería de Seguridad y Salud en el Trabajo, Ingeniería ambiental u otras ingenierías.- Experiencia de 2 años a más en el puesto (de preferencia en empresas de manufactura).- Diplamado y/o especialización en Sistemas de Gestión de Seguridad y Salud en el Trabajo.- Conocimiento de la Legislación de seguridad y salud en el trabajo (SST) o Sistema de Gestión de SST.- Microsoft Office nivel intermedio-avanzado.FUNCIONES- Responsable de la Gestión de la Seguridad, Salud Ocupacional y Medio Ambiente en la empresa.- Gestionar, mantener y hacer el seguimiento del Sistema de Gestión de SST, así como velar por su funcionamiento, desarrollo y mejora continua.- Planificar, implementar y supervisar el plan y programa anual de SSOMA para cumplir con los indicadores de gestión establecidos de SST.- Diseñar y Ejecutar el Plan de Inducción, Capacitación y Entrenamiento en cuanto al presupuesto anual, de SST y Medio Ambiente.- Realizar charlas de sensibilización de prevención de accidentes en áreas operativas y áreas administrativas.- Actualizar el RISST, Procedimientos y Manual de Seguridad y Salud en el Trabajo de la Empresa.- Actualizar, dar seguimiento y cierre a la documentación de comités de seguridad, registro de actividades de las brigadas, mapas de riesgo, uso correcto de EPP por área, de equipos contraincendios, cronograma de capacitaciones e inducción sobre SST al personal nuevo.- Comunicar al Gerente y/o Jefe de área sobre labores en las operaciones, que se encuentre con evidentes condiciones sub-estándares que atenten contra la integridad física de los trabajadores, equipos e instalaciones.- Controlar el cumplimiento de las acciones correctivas o preventivas y controla su cumplimiento.- Y otras funciones que deriven del propio puesto.BENEFICIOS- Ingreso a planilla desde el primer día.- CTS.- Gratificaciones.- SCTR.- Seguro de Vida Ley.- Alimentación cubierta al 60%.- Convenios corporativos (Salud, entretenimiento, estudios, etc.)- Utilidades.La organización es un empleador inclusivo y está feliz de promover activamente la inserción laboral de personas con discapacidad.En la empresa está prohibida la discriminación de acuerdo a la Ley N° 29973.En la empresa está prohibida la discriminación remunerativa entre varones y mujeres de acuerdo a la Ley N° 30709.</t>
+  </si>
+  <si>
+    <t>Ingeniero Técnico - Preventa</t>
+  </si>
+  <si>
+    <t>Tempel Group es una empresa internacional con más de 40 años de trayectoria comercial. Distribuimos dispositivos eléctricos/electrónicos de gran consumo y productos para soluciones de energía e ingeniería industrial. Procuramos servicios de auditoría y ejecutamos proyectos customizados de energía, ingeniería industrial y eficiencia energética. Actualmente, nos encontramos en la búsqueda de un Ingeniero Técnico con experiencia en la elaboración de propuestas técnicas en base a preciarios y cotizaciones de proveedores y clientes.Requisitos: - Título en Ingeniería Eléctrica; Mecánica, Electrónica o Energía. - Experiencia mínima de 2 años en el sector de telecomunicaciones. (Indispensable) - Habilidades demostradas en la elaboración de propuestas técnicas en base a preciarios y cotizaciones de proveedores y clientes. - Capacidad de análisis de costos unitarios de cada servicio. - Experiencia en la elaboración de presupuestos para proyectos de telecomunicaciones.Funciones: - Elaborar propuestas técnicas detalladas y precisas en base a los preciarios y cotizaciones de proveedores y clientes. - Analizar los costos unitarios de cada servicio para garantizar la máxima eficiencia y rentabilidad. - Elaborar presupuestos precisos y realistas para proyectos de telecomunicaciones. - Trabajar en estrecha colaboración con el equipo de ventas para garantizar la satisfacción del cliente y el cumplimiento de los objetivos de la empresa. - Revisar y sustentar las propuestas técnicas de servicios ante los clientes. - Elaboración y validación de ingeniería de sistemas eléctricos, dimensionamientos y selección de instalaciones eléctricas, cables, ITM, tableros, iluminación; etc. - Realizar informes técnicos por cada servicio atendido.Tempel Peru S.A.C. es un empleador que ofrece igualdad de oportunidades. No discriminamos por motivos de raza, color, religión, sexo, orientación sexual, identidad o expresión de género, edad, origen nacional, discapacidad, estado civil, condición de veterano o cualquier otra característica protegida por la ley.</t>
+  </si>
+  <si>
+    <t>ODONTOLOGOS</t>
+  </si>
+  <si>
+    <t>Villa El Salvador, Lima</t>
+  </si>
+  <si>
+    <t>Cadena de clínicas dentales de Lima Sur con 30 años de experiencia, que nos enfocamos en brindar la más alta calidad de servicios a nuestros pacientes, nos encontramos en búsqueda de los mejores profesionales para que se unan a nuestro staff.Personal que sean responsables, proactivos, amables, con actitud positiva, que sepan trabajar en equipo y que deseen incorporarse de inmediato a nuestras sedes.Lunes a sábadoTurno Mañana: 9 a 1 pmTurno tarde: 3 a 7 pmREQUISITOS:* Odontólogo titulado, colegiado y habilitado* Experiencia mínima de 3 años.* Estudiantes de odontología para asistentes dentales* Estudiantes de administración de empresas o afines, para counter* Tener excelente trato y calidad de atención al paciente.* Vivir en zonas aledañas Lima Sur.* Disposición al aprendizaje continuo y manejo de Cad Cam (Rehabilitadores)* Manejo de conducta (Odontopediatras)* Criterio y espíritu humano para atender a los pacientes.* Realizar evaluaciones, con un buen odontograma.* Manejo de tratamientos preventivos, tratamientos generales y también derivar a las especialidades.OFRECEMOS:* Grato ambiente laboral.* Gran cartera de pacientes.* Diferentes casuísticas para tratar.* Turnos entre lunes a sábado, medio tiempo y tiempo completo.Si cumples con los requisitos, anímate, postula y envíanos tu C.V. Únete a nuestro equipo.</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Ventas (concesionarios Lima)</t>
+  </si>
+  <si>
+    <t>PANDERO se encuentra en búsqueda de personas proactivas y con pasión por las ventas. Somos una empresa líder en el mercado reconocido como uno de los mejores lugares para trabajar en el país. ¿Cuáles serán tus funciones? - Vender el financiamiento de Pandero. - Fidelizar y hacer seguimiento a tu cartera de clientes. ¿Qué necesitas para unirte a nuestro equipo? - Ser proactivo - Tener facilidad en la comunicación - Capacidad para aprender - Habilidad de manejo de aplicaciones móviles - Disponibilidad para trabajar full-time.- Experiencia en el sector automotriz y/o en fondos colectivos. Te ofrecemos: - Ganar lo que realmente mereces con nuestro competitivo esquema de comisiones. - Ingreso a planilla con todos los beneficios de ley. - Participación gratuita en campañas de salud. - Programas de formación y desarrollo para que siempre estés un paso adelante. - Uno de los mejores climas laborales en el país. ¿Qué estás esperando? ¡Únete a nuestro equipo!</t>
+  </si>
+  <si>
+    <t>ATENCIÓN AL CLIENTE</t>
+  </si>
+  <si>
+    <t>Surquillo, Lima</t>
+  </si>
+  <si>
+    <t>*Oportunidad de Trabajo: Buscamos Talento en Atención al Cliente y Marketing Estamos en búsqueda de una persona apasionada y proactiva que se una a nuestro equipo para el manejo de redes sociales y atención al cliente. Si te interesa interactuar con clientes a través de llamadas y redes sociales, ¡te queremos conocer! No es necesario contar con experiencia previa; valoramos el entusiasmo, la disposición para aprender y las ganas de crecer profesionalmente. Somos un taller automotriz ubicado en el distrito de Surquillo. Si estás interesado/a, por favor envíanos tu CV.</t>
+  </si>
+  <si>
+    <t>ASESOR DE VENTAS - SEGUROS DE SEPELIO - SEDE LIMA NORTE</t>
+  </si>
+  <si>
+    <t>Independencia, Lima</t>
+  </si>
+  <si>
+    <t>Responsabilidades Cumplimiento de objetivos mensuales. Afiliación de clientes a nuestra diversa cartera de productos de Sepelio. Fidelización de cartera de clientes. Cobranza y seguimiento de pagos a clientes afiliados. Gestión de plataformas comerciales. Asistencia y puntualidad de Lunes a Viernes en horario de oficina.Requisitos Experiencia mínima de 1 año en el rubro de ventas. Solo personas comprometidas y con ganas de crecer Personas orientadas a cumplir objetivos Perseverantes y proactivos. Disponibilidad de trabajo presencial en Sede - Lima Norte. De preferencia contar con laptop. Disponibilidad para asistir a citas de afiliación con clientes.</t>
+  </si>
+  <si>
+    <t>Desarrollador de Software Core</t>
+  </si>
+  <si>
+    <t>Cerro Colorado, Arequipa</t>
+  </si>
+  <si>
+    <t>Buscamos un Desarrollador de Software apasionado y con experiencia para unirse a nuestro equipo de innovación en Jebi. El candidato ideal será responsable de desarrollar y mantener nuestras aplicaciones EDGE, incluyendo nuestro sistema de operaciones integrado con hardware de vanguardia y tecnologías de seguridad avanzada. Este rol es crucial para el éxito de nuestros proyectos de visión artificial y computación Edge aplicados en el sector minero. Experiencia Profesional: Mínimo 4 años de experiencia en desarrollo de proyectos tecnológicos. Experiencia comprobada en Sistemas Linux, Python, C++, TensorFlow, Torch, bash scripts, Flask, pruebas unitarias y pruebas automatizadas. Competencias Técnicas: Conocimientos avanzados en desarrollo web (HTML, CSS, JavaScript). Experiencia en integración de hardware, preferentemente con Nvidia Jetson. Familiaridad con tecnologías de seguridad como PyArmor, encriptación en arranque y de datos, y tecnologías VPN. Dominio de GIT, GitHub Projects, CI/CD, metodologías ágiles (Scrum), Docker, interfaces REST API, análisis de datos y visualizaciones de datos. Habilidades y Aptitudes: Capacidad para trabajar en equipo y colaborar eficazmente en un entorno dinámico. Fuertes habilidades analíticas y de resolución de problemas. Excelentes habilidades de comunicación y documentación técnica. Educación: Grado en Ciencias de la Computación, Ingeniería de Software, o algún campo relacionado. Responsabilidades: Desarrollo y mantenimiento de nuestro sistema de operaciones para dispositivos EDGE. Implementación de soluciones de seguridad en el software y hardware. Colaboración en el diseño y desarrollo de nuevas funcionalidades y mejoras. Participación activa en la planificación de proyectos, revisiones de código y procesos de CI/CD.</t>
+  </si>
+  <si>
+    <t>Analista de Contabilidad</t>
+  </si>
+  <si>
+    <t>REQUISITOS: Contador(a) Público Titulado(a) (Indispensable) Manejo del Sistema StarSoft (no excluyente) Dominio de normas Contables y Tributarias actualizadas. Experiencia realizando Analis contables y tributarios Conocimiento en Declaración ITAN, RENTA, IGV, PLAME, SIRE, INEI, DDJJ ANUAL, OTROS. Conocimiento en NIIF Experiencia en trámites en la SUNAFIL - SUNAT Manejo de Excel Experiencia en auditorias.BENEFICIOS Planilla con Beneficios de Ley desde el primer día de labores (Gratificaciones, CTS, Vacaciones, Utilidades) Asignación Familiar Seguros de Vida Días libres por tu Onomástico. Desayunos corporativos Oportunidad de Desarrollo y crecimiento Cursos o Diplomados pagados por la empresa.!!!</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVO DE VENTAS / BACK OFFICE - SAN JUAN DE LURIGAN...</t>
+  </si>
+  <si>
+    <t>San Juan De Lurigancho., Lima</t>
+  </si>
+  <si>
+    <t>Se requiere personal administrativo para la gestion y seguimiento del proceso de ingreso de solicitudes al sistema .*Conocimiento a Nivel Usuario Office Microsoft 365 (Excel indispensable).*Facilidad de palabra, empático y con proactividad.*Excelente actitud.*Capacidad para trabajar en equipo . *Compromiso en lograr objetivos.*Disposición para laborar en el distrito SJL - Lima (Altura Tren Linea 1 - Estación Santa Rosa).</t>
+  </si>
+  <si>
+    <t>Impulsador / vendedor de tienda retail</t>
+  </si>
+  <si>
+    <t>Prestigiosa empresa dedicada a la comercialización de productos textiles y artículos de cuero, en la actualidad contamos con 80 puntos de venta , por lo tanto buscamos personas para el puesto de IMPULSADORES DE VENTAS para nuestros puntos de ventas en tiendas departamentales.REQUISITOS: Disponibilidad para laborar full time: horario de 11:00 am a 10:00pm + 1 hora de refrigerio + 20 minutos de break. Tener disponibilidad para tramitar Carnet de Sanidad. Ser una persona puntual y responsable.FUNCIONES: Impulsar la venta de las prendas y accesorios de la marca. Atender y asesorar a los clientes en los productos, materiales, promociones y descuentos vigentes. Ordenar, reponer, doblar y vaporizar prendas. Recepcionar mercaderías y apoyar en la limpieza del punto de venta.BENEFICIOS: Ingreso a planilla desde el primer día con beneficios de ley (CTS, Gratificación, Vacaciones, Utilidades, ETC). 2 días de descanso semanal rotativo. Asignación y rotación entre las tiendas disponibles más cercanas al distrito de residencia.</t>
+  </si>
+  <si>
+    <t>QA Automatizador - Hibrido</t>
+  </si>
+  <si>
+    <t>¡Se parte de Stefanini!En Stefanini somos más de 30.000 genios, conectados desde 41 países, haciendo lo que les apasiona y co-creando un futuro mejor.Estamos buscando un QA Automatizador talentoso y motivado para unirse a nuestro equipo y ayudarnos a mantener y mejorar nuestros altos estándares de calidad.Responsabilidades y atribuciones: Diseñar, desarrollar y ejecutar casos de prueba utilizando frameworks de pruebas automatizadas. Colaborar estrechamente con los equipos de desarrollo y producto para entender los requisitos y asegurar su correcta implementación. Gestionar y rastrear defectos utilizando Jira, asegurando su correcta documentación y seguimiento hasta su resolución. Implementar y mantener procesos de CI/CD en Azure, asegurando la integración y entrega continuaRequisitos y competencias: Bachiller en Ingeniería de Software, Ciencias de la Computación o carrera afín. Experiencia en pruebas automatizadas y uso de frameworks de pruebas (Selenium, JUnit, RestAssured). Conocimiento de herramientas de gestión de pruebas y seguimiento de defectos (Jira, TestRail, etc.). Experiencia con herramientas de CI/CD y automatización (Jenkins, Azure DevOps). Conocimientos de bases de datos SQL. Familiaridad con herramientas de control de versiones como Git. Metodología Ágil</t>
+  </si>
+  <si>
+    <t>DevOps Engineer - Hibrido</t>
+  </si>
+  <si>
+    <t>¡Sé parte de Stefanini!En Stefanini somos más de 30.000 genios, conectados desde 41 países, haciendo lo que les apasiona y co-creando un futuro mejor.Estamos buscando un Ingeniero DevOps¡Seguro no te quieres quedar fuera!Responsabilidades y atribuciones: Diseñar, implementar y mantener infraestructuras en la nube utilizando Azure. Gestionar contenedores y orquestación con Docker y Kubernetes. Desarrollar y mantener pipelines CI/CD utilizando Azure DevOps. Administrar bases de datos SQL y optimizar su rendimiento. Implementar y gestionar herramientas de análisis de calidad y seguridad del código como SonarQube y Kiuwan. Colaborar estrechamente con equipos de desarrollo y operaciones para asegurar la integración y entrega continua. Participar en la planificación y ejecución de proyectos utilizando metodologías ágiles. Identificar y resolver problemas en la infraestructura y los pipelines de manera proactiva.Requisitos y competencias: Bachiller y/o Titulado en la carrera de Ingeniería de Sistemas, Informática o afines. Experiencia demostrable en el uso de Azure, Docker, Kubernetes, Azure DevOps, Cloud Implementación de pipelines CI/CD utilizando Azure DevOps Configuración y mantenimiento de contenedores Docker y orquestación con Kubernetes. Uso de SonarQube y Kiuwan para análisis de calidad y seguridad del código Familiaridad con herramientas de control de versiones como Git. Conocimientos de bases de datos SQL. Metodología Ágil</t>
+  </si>
+  <si>
+    <t>Asistente Academico - Miraflores</t>
+  </si>
+  <si>
+    <t>La Universidad Continental, organización de educación superior, nos encontramos en la búsqueda de un Asistente Académico - MirafloresFUNCIONES:Elaborar actas de notas, registro de asistencia, y asegurar el registro en el sistema banner.Atender los requerimientos académico-administrativos de los docentes, los estudiantes y otras áreas para la inmediata solución de los casos que se presenten.Separar las aulas de acuerdo al cronograma y a solicitud de la gestión académica.Verificar la inscripción y habilitación de los alumnos en el sistema.Coordinar los recursos y logística de las asignaturas y otros eventos del área académica EPG (coffee break, laptops, y otros si fuera el caso)Solicitar, realizar seguimiento y adaptar al formato institucional los materiales educativos del docente para el desarrollo de las asignaturas (sílabo, ppt, casos, lecturas, etc.).Verificar la habilitación del aula virtual en la apertura de cada asignatura. Y acompañar al docente durante el desarrollo de las sesiones académicas asegurando la atención oportuna de sus requerimientos.Monitorear y estar atento a los requerimientos del docente o de los estudiantes durante las sesiones de clases, inclusive en las sesiones virtuales (videoclases - zoom).Elaborar el Informe final del programa, también para la certificación progresiva, según sea el caso.REQUISITOS:Estudios: Egresado de Administración, Ciencias de la comunicación, Educación, Ingeniería Industrial o afines.Experiencia: Mínimo 2 año como asistente administrativo de preferencia en puestos académicos.Disponibilidad: lunes a viernes de 11:30 am a 9:00 pm, sábado 8:30 am a 8:00 pm y domingos de 8:00 am a 12:00 pm con 1 día de descanso en la semana.¿Qué te ofrecemos?Contrato en planilla completa con todos los beneficios de ley.UtilidadesAcceso a descuentos y/o becas en cursos y carreras profesionales.Capacitaciones continuasUtilidades, bono por desempeño.Libre afiliación a EPS.</t>
+  </si>
+  <si>
+    <t>Urgente! Ingreso inmediato Asesor Call Center C/sin exper Sueldo fijo ...</t>
+  </si>
+  <si>
+    <t>Magdalena del Mar, Lima</t>
+  </si>
+  <si>
+    <t>Únete a nuestra Familia de INCALL PERÚ SAC, importante empresa de Call Center con más de 15 años de trayectoria liderando en el rubro de Telecomunicaciones en España y porque queremos continuar creciendo junto a nuestros grandes talentos, estamos en la búsqueda de Asesores Telefónicos que tengan disponibilidad inmediata con muchas ganas de trabajar y ganar mucho dinero. No pierdas esta gran oportunidad que tenemos para ti. ¿CUÁL ES NUESTRA MODALIDAD DE TRABAJO? • Presencial 100% ¿CUÁL ES NUESTRO HORARIO? FULL TIME: • Lunes a Viernes de 07:00 AM a 4:00 PM .(DESCANSO SÁBADOS Y DOMINGOS) SEMI FULL Lunes a Viernes de 07:00 AM a 2:00 PM .(DESCANSO SÁBADOS Y DOMINGOS) PART TIME:• Lunes a Viernes de 07:00 AM a 11:30 AM • Lunes a Viernes de 09:00 AM a 1:30 PM • Lunes a Viernes de 11:30 AM a 4:00 PM (DESCANSO SÁBADOS Y DOMINGOS) ¿QUÉ OFRECEMOS? • Sueldos Fijo/1,050 y Sueldo escalonados/ S/1,200 // S/1,400 (Asciende por cumplimiento de objetivos desde el 1er día) + Altas comisiones sin tope + Bonos + Incentivos diarios + Premios. • Ingreso a Planilla. • Pagos quincenales y puntuales. • Asignación familiar si tienes hijos menores de edad. • Dinámicas Constantes, Juegos y Concursos participativos que son premiados. • Excelente clima laboral. • Línea de Carrera (crecimiento constante), ¡Te damos la oportunidad de ascender a los diferentes puestos en la empresa! - Trabaja SOLO de lunes a viernes. - Pagos PUNTUALES Y QUINCENALES. - ALTA COMISIÓN por cada VENTA. - Línea de Carrera a partir del 6to mes en adelante. - Juegos, Concursos, Sorteos y premios en efectivo constantes- Grato ambiente laboral. - Bono por referidos.- Y mucho más. ¿QUÉ REQUISITOS NECESITAS? • Tener 18 años en adelante. • Con o sin experiencia, ¡Nosotros te formamos con capacitaciones cortas y pagadas! • Excelente nivel de comunicación, actitud positiva y trabajo en equipo. • Ganas de aprender, ganar mucho dinero y estar en un trabajo estable. ¡¡NO PIERDAS LA OPORTUNIDAD DE FORMAR PARTE DE ESTA GRAN FAMILIA!! #YoSoyIncall #EnIncallAsciendes #GranOportunidadLaboral #BuenClimaLaboral #PagosPuntuales ¡Te esperamos!</t>
+  </si>
+  <si>
+    <t>Jefe de Operaciones para Colegio</t>
+  </si>
+  <si>
+    <t>Los Olivos, Lima</t>
+  </si>
+  <si>
+    <t>En Consorcio Educativo San Pio X SAC (20514347655), estamos en la búsqueda de un Jefe de Operaciones con un sólido background en servicios educativos (colegios privados) que destaque por sus cualidades de liderazgo, resolución de conflictos y trabajo de campo con personal a cargo.Los requisitos son los siguientes:Bachiller en Administración, Contabilidad, Ingeniería Industrial o afinesProfesional proactivo, responsable y éticoExperiencia mínima de 2 años en posiciones como jefe o 5 años como supervisorAltas habilidades de comunicación y solución de conflictosPensamiento analítico y creativo para la mejora continuaEficiencia y eficacia para el trabajo de campoLas funciones son las siguientes:Planificar, organizar y controlar las operaciones de la empresaAdministrar y supervisar el cuidado y mantenimiento de la infraestructura y mobiliarioSolucionar las incidencias con clientes internos y externosVelar por el cumplimiento del Reglamento InternoRealizar las contrataciones del personalGestionar las cobranzas y atención a clientes deudores</t>
+  </si>
+  <si>
+    <t>Supervisor de Producción</t>
+  </si>
+  <si>
+    <t>San José de los Molinos, Ica</t>
+  </si>
+  <si>
+    <t>En Don Ricardo buscamos al mejor talento para asumir el reto como Supervisor de Produccion, en la ciudad de Ica. ¡La oportunidad de tener un futuro mejor, está aquí!Supervisor de ProduccionResponsabilidades: Supervisar el cumplimiento del programa de producción diario para realizar la entrega de pedidos solicitados velando siempre por la calidad e inocuidad del producto. Organizar al personal y monitorear el rendimiento en las labores asignadas durante el proceso. Capacitar al personal ingresante a fin de brindarles las indicaciones adecuadas para cumplir con las funciones asignadas. Monitorear el cumplimiento de los indicadores establecidos a través del aplicativo móvil. Reportar los avances de producción e identificar las dificultades que afecten el proceso en calidad, seguridad y rendimiento, a fin de proponer alternativas de solución al jefe inmediato. el correcto uso de los materiales, insumos y herramientas asignadas, validando de forma periódica el estado de las mismas. Cumplir con las obligaciones dentro del marco del Reglamento de Seguridad y Salud en el Trabajo, Política de Seguridad y Salud en el Trabajo y lineamientos de las Certificaciones de Don Ricardo.Requisitos: Egresado, Técnico o Universitario Carreras afines: Ingeniería Industrial, Ingeniería Agroindustrial, Ingeniería de Alimentos, Administración, afines.Modalidad: Presencial"En Don Ricardo contamos con talentos diversos y promovemos la contratación de personas en igualdad de oportunidades. Valoramos las capacidades y el mérito de todos nuestros integrantes y nuestros procesos de reclutamiento son inclusivos y libres de discriminación". Por ello ¡Todos los talentos son bienvenidos!</t>
+  </si>
+  <si>
+    <t>JEFE DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Funciones: Diseñar los servicios de transporte de carga según los requerimientos del cliente y planificar las acciones a seguir por parte del personal a su cargo para una correcta ejecución. Desarrollar y gestionar el equipo a cargo, velando por el mantenimiento de un buen clima laboral dentro del marco de la política organizacional para el logro de objetivos. Asegurar el cumplimiento de las políticas de seguridad, implementar protocolos de seguridad y velar por el adecuado entrenamiento de los conductores frente a siniestros, robos y otros incidentes. Asegurar la gestión de proveedores terceros, a través del cumplimiento de requisitos para las homologaciones, negociación de tarifas y generación de ordenes de compras. Supervisar y controlar la calidad de los servicios, desde la recepción hasta la entrega, a través de los Coordinadores de transporte, GPS asignado y personal a cargo del servicio. Analizar y elaborar el ruteo de los diferentes servicios de transporte y la distribución de los servicios a los conductores, a través de estadísticas e indicadores de gestión, que permitan asegurar la equidad de trabajo, el cumplimiento de SST, garantizando el nivel de servicio. Supervisar la correcta aplicación de la normativa de transporte, políticas y procedimientos en el desarrollo de los servicios. Optimizar la atención en los distintos Terminales de Almacenamiento y Puertos, velando por el cumplimiento de los requerimientos de nuestros clientes. Responsable de mantener y verificar el cumplimiento de los estándares de SSOMA en la ejecución de las operaciones de transporte. Gestionar y reportar quejas y reclamos relacionados con el servicio de transporte. Participar en la revisión de los requisitos operativos para las licitaciones y clientes nuevos. Identificar y controlar los riesgos de negocios en la operación de acuerdo a las normas y políticas de compañía. Asegurar el cumplimiento del mantenimiento preventivo y correctivo de las unidades Supervisar el cumplimiento de las homologaciones de la flota, los conductores y terceros. Supervisar la administración de la documentación técnica de las unidades. Establecer mejoras a los procesos y procedimientos de las actividades de transporte de acuerdo a los estándares de la compañía.Requisitos Bachiller en Ingeniería de Transporte, Industrial, Mecánica y/o Administración. Indispensable contar con especialización en Administración de flota. Experiencia de 03 años en posiciones afines, en las funciones descritas liderando la operatividad de transporte en empresas logísticas y afines. Dominio del Ms Office a nivel avanzando. Disponibilidad para trabajar en Callao.</t>
+  </si>
+  <si>
+    <t>Vendedores Zona Jockey - Chacarilla - Rambla San Borja - Larcomar - Sa...</t>
+  </si>
+  <si>
+    <t>Prestigiosa empresa dedicada a la comercialización de productos textiles y artículos de cuero, en la actualidad contamos con 80 puntos de venta , por lo tanto buscamos personas para el puesto de VENDEDORES para nuestras tiendas departamentales y / o Boutiques para formar parte de nuestra corporación.REQUISITOS: Disponibilidad de Tiempo Completo. Carnet de sanidad vigente o con disponibilidad para tramitarlo. Conocimiento en colorimetría, moda y tendencias. Conocimiento en técnicas de cierre de ventas. De preferencia tener estudios y/o capacitaciones en moda, decoración, marketing y afines.FUNCIONES: Asesorar la imagen de nuestros clientes usando los productos de la marca asignada (Idear outfits para uso diario y ocasiones especiales). Ordenar, reponer, doblar y vaporizar prendas. Apoyar al equipo de visual cuando se requiera. Recepcionar mercaderías, apoyar en la limpieza del local y en puerta dando la bienvenida a los clientes.COMPETENCIAS: Trabajo en equipo. Proactividad, Responsabilidad y sobretodo puntualidad. Excelente capacidad de relaciones interpersonales. Responsabilidad y gusto por doblar y ordenar ropa.BENEFICIOS: Horario: Tiempo Completo, de Lunes a Domingo de 10 am a 10 pm, con 2 dias de descanso semanal, 1 hora de refrigerio y 30 min de descanso por la tarde. Zonas en las que trabajarías: Jockey - Chacarilla - Rambla San Borja - Larcomar - San Isidro - Salaverry. Remuneración: S/1,025 soles. Planilla desde el primer día, seguro ESSALUD, asignacion familiar, CTS, gratificación, vacaciones, utilidades y demás beneficios de ley.</t>
+  </si>
+  <si>
+    <t>OPERADOR CALL CENTER</t>
+  </si>
+  <si>
+    <t>FUNCIONES Contribuir con el desarrollo del programa de preparación y respuesta en casos de emergencia. Cumplir lo dispuesto en el plan de respuestas a emergencias. Ingreso y escaneo de datos. Atender con amabilidad, eficiencia y eficacia las llamadas telefónicas de diversas compañías, clientes y proveedores. Registrar los siniestros diarios de diversas compañías. Realizar el seguimiento para que la atención se realice en los tiempos establecidos y de acuerdo a los protocolos implementados. Efectuar llamadas telefónicas a diversas clínicas para coordinar las atenciones de emergencia de los asegurados. Informar y orientar a los pacientes sobre la cobertura de la póliza. Coordinar atenciones con los Centro de imágenes, Clínicas, ambulancias, médicos de campo e internos para las atenciones solicitadas de los asegurados.REQUISITOS: Experiencia en atención de Central de Emergencias, mayor a 01 año. Buena expresión verbal y escrita, amplia capacidad de análisis, dinámica y proactiva Atención especializada en clientes de clínicas y centros médicos. Laborar en turno principal, en la tarde, incluyendo domingos y feriados, con descanso un día en la semana. Reemplazo de turno noche, mínimo un día a la semana. Laborar en forma presencial. Estudios Técnicos o Universitario Conocimiento en WORD- EXCEL</t>
+  </si>
+  <si>
+    <t>Analista de Datos Seguridad alimentaria y Calidad para exportadora</t>
+  </si>
+  <si>
+    <t>Objetivo y responsabilidades de la posiciónRecepciona y procesa la data proveniente de las inspecciones de calidad de la fruta y visitas a los productores (según programa de Calidad &amp; Seguridad Alimentaria) de las 3 zonas definidas en Perú (Chao, Olmos e Ica) y otras en proceso de evaluación, construyendo gráficos de tendencias y evaluando resultados.Soporte directo a la gerencia de Calidad y seguridad alimentaria en la elaboración de presentaciones, seguimiento y control en las actividades del área, tanto en la relación con los productores como con las distintas entidades relacionadas al negocio.La calidad y oportunidad de la información procesada por el puesto es de crucial impacto para el negocio.Principales responsabilidades:- Recepciona y procesa la data proveniente de las inspecciones y visitas a los productores (según programa de Calidad &amp; Seguridad Alimentaria) de las 3 zonas definidas en Perú (Chao, Olmos.- Asegura la confiabilidad de la data relacionada al sustento técnico correspondie.- Busca la digitalización de la información tanto de origen como de destino asegurando la confiabilidad de la data y la puntualidad en la entrega.- Recepciona y procesa la data proveniente de las inspecciones de Calidad en destino (USA, EU, UK, Asia) construyendo gráficos de tendencias y evaluando resultados.- Propone KPI para el análisis y la entrega de data así como para la digitalización de la misma.- Cumple con los KPI definidos y propone mejoras en los mismos.- Administra y gestiona las especificaciones de Calidad y Seguridad Alimentaria aplicables, desde las plataformas de destino hasta la entrega y sociabilización con los productores.- Promover la estandarización en los procesos de digitalización y reportes con las otras BU.- Mantener al día de manera puntual y confiable los reportes de información y atender requerimientos de otras áreas relacionadas a la información del área para la adecuada toma de decisiones.- Atiende y asegura información relacionada a trazabilidad para sustentar quejas, reclamos o resultados de Calidad y Seguridad Alimentaria.Requisitos:- Universitario egresado en ingeniería Estadística, Industrial, Informática, Agronegocios o afín.- Conocimiento en Planificación, generación de Data, gráficos, Análisis numérico / Estadístico/ Capacidad Analitica. Manejo de herramientas informáticas.- Experiencia mínima 3 años, 2 años en análisis de data, digitalización y mejoramiento de procesos.- Experiencia mínima 1 año en áreas de procesos alimentarios o agroindustriales.- Manejo avanzado de Excel, Tableau, Power BI.- Conocimiento medio de procesos agroindustriales.- Conocimiento medio en Calidad y Seguridad Alimentaria.- Excelente comunicación oral y escrita.- Excelentes relaciones interpersonales.- Inglés Intermedio - indispensable- Conocimiento en normas de SST- Interpretación de normas de seguridad industrial- Licencia de conducir A1.*Salario y beneficios acorde al mercado, contrato a plazo determinado con posibilidad de renovación a nuevo plazo según desempeño en régimen general.</t>
+  </si>
+  <si>
+    <t>EJECUTIVO COMERCIAL CORPORATIVO – ENTEL EMPRESAS</t>
+  </si>
+  <si>
+    <t>En Entel Empresas seguimos buscando EJECUTIVOS DE VENTAS para que se sumen al equipo más POWER …Sé parte del equipo comercial de ENTEL EMPRESAS, postulando a la posición de EJECUTIVO COMERCIAL EMPRESAS en nuestro socio de negocio estratégico.EJECUTIVO COMERCIAL CORPORATIVO – ENTEL EMPRESASFunciones: Prospectar clientes RUC 20 en el mercado, generar citas, levantar necesidades, presentar propuestas económicas, negociar condiciones comerciales y cierre de ventas. Trabajar bases de datos para la prospección. Vender todos los productos del portafolio comercialRequisitos: Experiencia laboral en VENTA de al menos 1 año (preferentemente en el segmento EMPRESAS). Deseable en la industria de Telecomunicaciones. Conocimientos básico/intermedio de Microsoft office (Excel, Power Point, Word, Outlook). Buena comunicación, empático y proactivo. Buena capacidad de aprendizaje y adaptación a cambios Trabajo en oficina. Lima – Perú.Ofrecemos: Contrato de trabajo con REMUNERACIÓN BÁSICA y todos los beneficios de ley. Comisiones más competitivas en el mercado. Factor de comisión de hasta 1.7 de lo facturado. Bonos de productividad de hasta S/2,200 mensuales. Presupuesto de movilidad desde S/150.oo mensuales. Herramientas comerciales idóneas para logro de objetivos. Línea de Carrera y excelente clima laboral.</t>
+  </si>
+  <si>
+    <t>Especialista de Desarrollo Core</t>
+  </si>
+  <si>
+    <t>Función GeneralEfectuar el relevamiento y análisis de los sistemas informáticos, a fin de proponer mejoras, soluciones, y/o el desarrollo de nuevo software adaptado a las necesidades de la organización.Funciones EspecíficasEvaluar y diseñar los nuevos desarrollos en los requerimientos y/o modificaciones de los productos de las Bancas e identificar cual será el resultado final, a fin de informar al usuario si el requerimiento y/o modificación es factible.Estimar el tiempo que demandará el desarrollo de nuevos requerimientos y/o modificaciones, a fin de establecer cronogramas mediante los cuales el proceso de desarrollo se mantenga organizado.Desarrollar y asegurar que los entregables cumplan con la necesidad de los nuevos requerimientos y/o modificaciones, a fin de validar y eliminar cualquier oportunidad de falla.Realizar el relevamiento de los requerimientos o necesidades del usuario con la finalidad de atender las necesidades de la organización.Analizar y diseñar sistemas a fin de establecer las especificaciones del diseño.Detectar problemas en los sistemas a fin de realizar el análisis y proponer soluciones.Desarrollar las pruebas unitarias y funcionales de la aplicación con la finalidad de brindar soluciones eficientes.Participar en las pruebas funcionales con los usuarios con la finalidad de validar el correcto funcionamiento de la solución.Elaborar la documentación correspondiente al análisis y diseño de la solución.RequisitosBachiller o Técnico de las carreras de Ingeniería de Sistemas, Informática, Computación, o afines.Experiencia mínima de 2 años desarrollando (programando) soluciones/aplicativos, deseable en el sector bancario, programación de interfaces web y BackEnd.Conocimiento en el Core Bancario BANTOTAL (indispensable).Conocimiento de programación con herramienta Genexus/Descartes.Conocimiento en el manejo de Base de Datos: SQL, DB2 As400, Oracle.Conocimiento de Plataformas AS/400 y SQL SERVER (deseable).Experiencia trabajando con usuarios y trasladando requisitos de negocio en especificaciones funcionales.CompetenciasTrabajo en equipoOrdenComunicaciónTolerancia y Trabajo bajo presión.</t>
+  </si>
+  <si>
+    <t>ASESOR INMOBILIARIO</t>
+  </si>
+  <si>
+    <t>Trujillo, La Libertad</t>
+  </si>
+  <si>
+    <t>FUNCIONES El asesor se encargara de realizar la comercialización de un inmueble, realizando todas las gestiones necesarias para cerrar en buen termino la operación del inmueble. Se encargara de llevar a cabo una buena estrategia de venta o renta y que esta se realice lo mas pronto posible. Se encargara de la recolección de documentos, revisando que todos estén en orden El asesor inmobiliario brindara asesoría integral al comprador sobre el inmuebleRequisitos: Contar con estudios técnicos o Universitarios en Marketing, Administración o carreras afines (Deseable) Experiencia mínima de 1 años en venta inmobiliaria , Seguros o afines. Dominio de word, excel, power point, CMR. Facilidad de palabra y gestion de llamadas. Condiciones Laborales : Sueldo Basico Excelente comisiones. Ingreso a planilla Disponibilidad para laborar de lunes a domingos Labores en oficina y campo ( 50/50) Excelente ambiente laboral.</t>
+  </si>
+  <si>
+    <t>COORDINADOR DE LOGISTICA</t>
+  </si>
+  <si>
+    <t>Requisitos del Cargo:- Bachiller en Ingeniería Industrial, Administración o carreras afines.- Excel y Power Bi intermedio.- Manejo de sistemas ERP.- Conocimiento de operaciones logísticas, comercio internacional y análisis de costo, así como Conocimientos y experiencia en trámites aduaneros.- Capacidad de planificación y organización.- Ingles nivel intermedio.Funciones y Responsabilidades:- Control y supervisión de productos en almacén y manejo de Kardex, coordinación de entregas y despacho de mercadería.- Manejar el correcto flujo de materiales y sus niveles mínimos y máximos de stock.- Responsable de los inventarios mensuales, semestrales y anuales observando la coherencia con las cantidades proyectadas..- Buscar proveedores en el exterior para procura de equipos y materiales de importación solicitados por las áreas de proyectos.- Solicitar cotizaciones a proveedores nacionales y mantener una base de datos actualizada de los mismos.- Realizar el proceso de compra de suministros requeridos por las áreas, incluyendo la elaboración y envío de órdenes de compra.- Gestionar y controlar la actualización del inventario y los movimientos de productos en el almacén principal, secundarios y virtuales de la empresa, incluyendo cantidades, precios actualizados, tiempos de vida y antigüedades.- Seguimiento de las importaciones y nacionalización, llevar a cabo las tareas operativas de gestión del comercio exterior, vinculada con cotizaciones internacionales.- Realizar toda la logística de importaciones, elaboración y control de documentación, cálculo de costos de exportaciones e importaciones, coordinación con navieras y/o empresas de transporte.- Recibir el requerimiento y gestionar las cotizaciones de suministros nacionales e internacionales, solicitados por las áreas de la empresa.- Coordinar con los proveedores, operadores logísticos y agentes de aduanas.- Solicitar, revisar y aprobar documentos de transporte (BL / AWB, master).- Emisión de reportes periódicos a las gerencias respectivas.- Responsable del mantenimiento de flota vehicular, monitoreo y control.Ofrecemos:- Oportunidad de ser parte fundamental de una empresa en crecimiento y contribuir a su éxito continuo.- Ambiente de trabajo dinámico y colaborativo.- Desarrollo profesional y oportunidades de aprendizaje.- Compensación competitiva y beneficios.Consideraciones:Modalidad de trabajo: Lunes a Sábado Presencial (Cercado de Lima).Seguro EPS cubierto al 100% al titular.Condiciones y/o Beneficios Laborales: Todas las de la ley.Grato ambiente laboral, donde se respetan la diversidad y la equidad de género.</t>
+  </si>
+  <si>
+    <t>Encargado(a) /Senior de Auditoría</t>
+  </si>
+  <si>
+    <t>¿Cómo es el día a día de la posición?Como Encargado(a) de Auditoría &amp; Assurance en Deloitte, dirigirás equipos de trabajo para la ejecución de la auditoría externa, la cual está orientada en validar información financiera para el uso de la alta Dirección, Consejos de Administración, inversionistas, instituciones de crédito y terceros, en las empresas que contratan nuestros servicios. Junto con Gerentes del equipo, identificarás riesgos para el proceso de auditoría, así como áreas de oportunidad para la Entidad. Al interactuar directamente con el equipo gerencial y con el personal clave de nuestros(as) clientes, podrás conocer a fondo los procesos de control, ampliar tus conocimientos sobre las Normas Internacionales de Auditoría y las Normas de Información Financiera, teniendo la oportunidad de aplicar diversos procedimientos y herramientas de auditoría para el análisis y revisión de estados financieros.¿Qué se necesita para aplicar? Egresado(a) o Bachiller de Contabilidad. Mínimo 4 a 5 años de Experiencia en auditoría de estados financieros (auditoría externa). Tener experiencia como encargado(a), manejando equipos de trabajo. Conocimientos de IFRS (deseable USGAAP). Disponibilidad para viajar. Competencias: Comunicación asertiva, atención al cliente, liderazgo, escucha activa, compromiso e integridad profesional. Nivel de inglés intermedio (indispensable). Disponibilidad inmediata.¿Por qué Deloitte?Con nuestro trabajo creamos un impacto significativo, que marca una diferencia positiva en nuestros(as) clientes, la sociedad y el planeta. Colaboramos en distintos proyectos con personas que nos escuchan, inspiran, alientan y apoyan a dar lo mejor de nosotros(as) mismos(as).Para Deloitte, nuestro desarrollo integral es una prioridad. A través de las oportunidades de aprendizaje, movilidad, voluntariado y la asesoría personalizada de nuestros(as) líderes, crecemos en nuestras carreras y formamos lazos que perduran.Siguientes pasos¿Estas listo(a) para crear un impacto? Te estamos buscando, postúlate.</t>
+  </si>
+  <si>
+    <t>EJECUTIVO / ASESOR DE VENTAS CLARO EMPRESAS - SAN JUAN DE LURIGANCHO -...</t>
+  </si>
+  <si>
+    <t>Se requiere personal para la gestión de ventas:*Experiencia en ventas servicios Móviles y Fijos de Claro para Empresas (no indispensable)*Experiencia afines al rubro de ventas tales como: atencion al cliente Call Center, venta de tarjetas de banco y seguro, etc*Conocimiento a Nivel Usuario Office Microsoft 365 (Excel indispensable)*Envió de propuestas de forma profesional y/o corporativo .*Gestión y seguimiento de solicitudes para la cartera de clientes de Claro.*Gestión y seguimiento de solicitudes para la captación de clientes de la Competencia (Entel, Movistar, Bitel y otros)*Facilidad de palabra, empático y con proactividad.*Excelente actitud, comprometidos, capacidad para trabajar en equipo y lograr objetivos .*Disposición para laborar en el distrito SJL - Lima (Altura Tren Linea 1 - Estación Santa Rosa).</t>
+  </si>
+  <si>
+    <t>Analista de ventas</t>
+  </si>
+  <si>
+    <t>Sobre el Rol:Estamos en busca de personas que vivan nuestros valores y que no teman desafiar, innovar, experimentar y moverse a un ritmo rápido. Siempre estamos en la búsqueda de formas de mejorar nuestros productos y a nosotros mismos. Si te identificas con esto, nos encantaría conocerte.Propósito del Cargo:Gestionar la información comercial disponible en diversas bases de datos para proporcionar análisis cualitativos y cuantitativos que respalden las decisiones del área de ventas.Lo Que Harás:- Realizar análisis y cruces de información de distintas bases de datos (cubo de ventas, Nielsen, Kantar, B2B, Power BI, etc.) para identificar oportunidades a nivel macro y micro. - Actualizar y analizar al cierre del mes los principales KPI’s de ventas (sell-in, sell-out, cobertura). - Ser responsable de la actualización y seguimiento de los avances de ventas semanales por canal y cliente. - Estructurar y optimizar los datos para facilitar su análisis y procesamiento, traduciendo datos complejos en información comprensible que apoye la toma de decisiones. - Monitorear KPI’s, supervisando los indicadores clave para el rendimiento de la empresa.Quién Eres:- Educación: Licenciatura/Grado Universitario en Administración, Marketing o carreras afines. - Dominio avanzado del paquete Office. - Experiencia previa como analista de información de ventas y/o analista de inteligencia de negocios; deseable experiencia en estudios de mercado con KANTAR o NIELSEN. - Conocimiento comercial relevante.Lo Que Podemos Ofrecerte:En Essity, creemos que el aprendizaje y el desarrollo profesional de cada persona son únicos. Queremos empoderar a nuestros empleados para alcanzar su máximo potencial en una cultura ganadora motivada por un propósito poderoso. - Cultura Colaborativa e Inclusiva | Líderes Empoderadores y Comprometidos | Trabajo con un Propósito Poderoso e Impacto Sostenible | Aprendizaje y Crecimiento en tu Carrera | Apoyo al Bienestar y Vida Laboral Sostenible | Innovaciones que Cambian la Vida | Recompensas Totales CompetitivasUbicación:San Isidro, Lima - PerúJuntos, estamos mejorando vidas, todos los días.Trabajar en Essity no es solo una carrera; Es una oportunidad para hacer del mundo un lugar más sano, más higiénico y más seguro. Con innovaciones impactantes junto con soluciones sostenibles, nos esforzamos por llegar a más personas cada año con las soluciones necesarias y esenciales para el bienestar</t>
+  </si>
+  <si>
+    <t>Soporte Técnico N2 - Villa el Salvador</t>
+  </si>
+  <si>
+    <t>¡Sé parte de Stefanini! En Stefanini somos más de 30.000 genios, conectados desde 41 países, haciendo lo que les apasiona y co-creando un futuro mejor.¡Seguro no te quieres quedar fuera!¿Por qué te elegiremos? ¡Porque los desafíos que asumirás reflejan tus ambiciones!Responsabilidades y atribuciones: Soporte a todo el parque de PC’s y periféricos (pin pad - ticketeras - etc.) Resolver los incidentes de hardware y software in situ Soporte a incidentes referentes a Software base Preparación, instalación, configuración y cambio de equipos de cómputo Clonación de equipos, backup de la información del usuario Personalización del equipo y restore de la información Preparación de equipos para ser entregados al proveedor y usuarios Atenciones de primera línea a impresoras. Preparación, instalación, configuración y cambio de equipos de cómputo por anomalías del equipo. Incluye clonación de equipos, backup de la información del usuario, personalización del equipo y restore de la información.Requisitos y competencias: Profesional con estudios técnicos concluidos en sistemas, informática, industrial, logística o similares. Conocimientos en ITIL Foundation (deseable no obligatorio) Conocimiento en metodologías ágiles (deseable) Experiencia de 2 años Conocimiento técnico en hardware. Conocimiento básico de MS Office 2016 o posterior. Conocimiento de herramientas de Gestión de Tickets (JIRA, ServiceNow, Proactiva net, etc.).</t>
+  </si>
+  <si>
+    <t>Representantes de atención al cliente para canales digitales</t>
+  </si>
+  <si>
+    <t>Título: Representante de Atención al Cliente para Canales Digitales Empresa: Apex América Perú Ubicación: Presencial en Gr Camaná 851, Lima, Perú Apex América Perú está buscando un Representante de Atención al Cliente para Canales Digitales dedicado y orientado al servicio para unirse a nuestro equipo en crecimiento. El candidato ideal será responsable de brindar soporte y asistencia a nuestros clientes a través de diversos canales digitales, garantizando una experiencia positiva y satisfactoria. Responsabilidades: 1. Atender consultas, reclamos y solicitudes de los clientes a través de correo electrónico, chat en vivo y redes sociales. 2. Proporcionar soluciones rápidas y efectivas a los problemas de los clientes, demostrando empatía y alta capacidad de resolución de problemas. 3. Mantener actualizados los registros de las interacciones con los clientes y garantizar el seguimiento de los casos hasta su resolución. 4. Colaborar con otros departamentos para abordar las inquietudes de los clientes y mejorar los procesos internos. 5. Promover una actitud positiva y profesional en todas las interacciones con los clientes, reflejando la imagen y los valores de Apex América Perú. Requisitos: 1. Experiencia previa como Representante de Atención al Cliente, preferiblemente en un entorno digital. 2. Excelentes habilidades de comunicación, tanto escritas como verbales, en español. 3. Capacidad demostrada para resolver problemas y manejar situaciones de alta presión. 4. Conocimientos sólidos en el uso de herramientas de comunicación digital y software de servicio al cliente. 5. Habilidades interpersonales sólidas y una actitud positiva y profesional.6. Disponibilidad para trabajar en horario rotativo, incluidos fines de semana y días festivos, según lo requiera el negocio. Apex América Perú ofrece un ambiente de trabajo dinámico y colaborativo, oportunidades de crecimiento profesional y un paquete de compensación competitivo. Si estás buscando un desafío emocionante y tienes una verdadera pasión por brindar un servicio al cliente excepcional, te invitamos a postularte para este puesto.</t>
+  </si>
+  <si>
+    <t>Ejecutivo de ventas autos- Cayma - Porongoche</t>
+  </si>
+  <si>
+    <t>Cayma, Arequipa</t>
+  </si>
+  <si>
+    <t>En Pandero impulsamos # Historias de Éxito..Únete como EJECUTIVO DE VENTAS y dale la bienvenida a lo posible!Objetivo del puesto: Hacer posible que nuestros clientes cumplan la meta del auto o casa propia, vendiendo contratos de fondos colectivos en nuestra amplia red de puntos de venta.Requisitos: Experiencia deseable en ventas o atencion al cliente CAPACIDAD PARA APRENDER ONLINE, buen manejo de aplicaciones móviles Disponibilidad para trabajar full-time.- Celular con sistema operativo androidTe ofrecemos: Ingreso a planilla con todos los beneficios de ley. Eres comisionista y tú eliges cuanto ganar.. ¡No existe un límite! Mantendrás un punto de venta fijo cercano a tu domicilio</t>
+  </si>
+  <si>
+    <t>Asistente académico</t>
+  </si>
+  <si>
+    <t>Somos la empresa de formación en TI más grande del mundo, con más de 300 ubicaciones en 72 países-millones de alumnos capacitados anualmente.- Certificados con validez internacional.- Capacitación de especialización y preparación para las más altas certificaciones internacionales.Especialidades:- Tecnologías de la Información- Gestión de TI- Ciberseguridad- Office- Programa de Inglés para Profesionales- Competencias Ejecutivas y Habilidades BlandasDescripción del puesto: Asistente Académico¡Únete a nuestro equipo como Asistente Académico en el área de Operaciones académicas! Buscamos a un profesional apasionado por la educación y el desarrollo académico, con habilidades organizativas y de comunicación excepcionales.En este rol, serás responsable de brindar apoyo administrativo a nuestros docentes e investigadores, así como de coordinar y ejecutar actividades académicas. Tendrás la oportunidad de colaborar estrechamente con el equipo académico para garantizar la calidad de nuestros programas de formación en Tecnologías de la Información, Gestión de TI, Ciberseguridad y más.Esperamos que seas un profesional proactivo, con capacidad para trabajar en equipo y resolver problemas de manera eficiente. Tu contribución será fundamental para el éxito de nuestros programas de especialización y la preparación de nuestros alumnos para las certificaciones internacionales más exigentes.Fuciones especificas:Cumplir con las acciones que aseguren el correcto desarrollo de las clases cerradas desde inicio a fin (creación de clase, asignación de instructor, aseguramiento del registro de alumnos, aseguramiento de entrega de material, entrega de certificados y constancia, generación y entrega de Informe de Cierre de clases cerradas). Realizar acciones de preventa tales como:Coordinación entre instructor, NHP y clientes cuando amerite. Generar CP para las distintas propuestas comerciales. Revisión y adaptación de temarios en conjunto con los instructores. Apoyo con entrega de documentos para la preventa (CVs y documentación).Apoyo en el monitoreo de las clases.Otras actividades correspondientes al cargo.Requisitos:Estudios técnicos y/o administrativos.1 año como asistente académico o como gestor académico en instituciones de servicios y/o educativas y/o puestos similares.BeneficiosPlanilla completa desde el primer día de laboresEPS cubierta al 35%Beneficios coorporativos</t>
+  </si>
+  <si>
+    <t>Ingeniero de Datos e IA en la Nube - Hibrido</t>
+  </si>
+  <si>
+    <t>Acerca de Nosotros:Estamos buscando un Ingeniero de Datos e IA en la NubeEn Stefanini somos más de 30,000 genios, conectados desde 41 países, co-creando un futuro mejor.Responsabilidades y atribuciones: Diseñar, implementar y gestionar soluciones de bases de datos en la nube, asegurando su eficiencia, seguridad y escalabilidad. Configurar y administrar servicios de almacenamiento en la nube como Amazon S3, Azure Blob Storage y Google Cloud Storage. Desarrollar y mantener pipelines de datos eficientes y confiables que soporten nuestras aplicaciones y modelos de IA. Colaborar con equipos de ciencia de datos y desarrollo de software para integrar modelos de IA en nuestras soluciones en la nube. Monitorear y optimizar el rendimiento de las bases de datos y servicios de almacenamiento. Asegurar la integridad y calidad de los datos a través de procesos de limpieza y transformación. Implementar y mantener políticas de seguridad y respaldo para los datos en la nube. Proporcionar soporte técnico y solución de problemas relacionados con bases de datos y pipelines de datos.Requisitos y competencias: Bachiller en Ingeniería de Sistemas, Ciencias de la Computación o campo relacionado. Experiencia comprobable en gestión y administración de bases de datos en la nube de 3 años. Configuración y gestión de servicios de almacenamiento en la nube.Optimización del almacenamiento para maximizar el rendimiento y minimizar los costos.Diseño y Configuración de Esquemas de Datos. Desarrollo y Mantenimiento de Pipelines de Datos. Automatización de la ingesta, transformación y limpieza de datos. Integración y Soporte para Modelos de IA Experiencia con frameworks de IA como Tensor Flow, entre otros. Implementación de pipelines de datos específicos para aplicaciones de IA. Seguridad y Cumplimiento de Datos. Monitorización y Optimización del Rendimiento.</t>
+  </si>
+  <si>
+    <t>Operario de Almacén</t>
+  </si>
+  <si>
+    <t>Punta Hermosa, Lima</t>
+  </si>
+  <si>
+    <t>En Essity Perú, nos encontramos en búsqueda de un Operario de Almacén para desempeñar las siguientes funciones:- Ejecutar y controlar la movilización de la mercancia en las diferentes zonas del almacén.- Ejecutar las políticas y medidas definidas por la organización.- Participar activamente en el programa de capacitación sobre Buenas Prácticas y Seguridad y Salud en el Trabajo.- Rotular paletas de productos, considerando, código, lote, cantidad por paleta, fecha de recepción y responsable de la recepción del material / producto.- Participar en el modulado de productos para Autoservicios, colocación de etiquetas según las restricciones de los clientes.- Despachar productos validando las cantidades y lotes según los listados de recolección.- Cumplir con el llenado de los formatos y/o registros según la tarea asignada- Participar en los inventarios/conteos ciclico e inventario anualRequisitos:- Experiencia previa en puestos similares en el área de logística o almacenes de mínimo 1 año.- Secundaria completa</t>
+  </si>
+  <si>
     <t>¡CONVOCATORIA PRESENCIAL MASIVA POR CAMPAÑA - OPERARIOS DE PRODUCCIÓN!</t>
   </si>
   <si>
-    <t>Cercado De Lima, Lima</t>
-  </si>
-  <si>
-    <t>s/. 2500</t>
-  </si>
-  <si>
     <t>Nestlé Perú, la compañía líder en Nutrición, Salud y Bienestar, se encuentra en la búsqueda de personas interesadas a la posición de:OPERARIO DE PRODUCCIÓNSi eres mayor de edad, tienes secundaria completa y tienes muchas ganas de iniciar o potenciar tus experiencias laborales; únete a la mejor empresa líder en su rubro.Alberto Reyes 1808 (Fábrica D’Onofrio en la Av. Venezuela 2580). Sala Carpintería (Al costado de la cochera)DEBES TRAER COPIA DE CERTIFICADO DE 5TO AÑO DE SECUNDARIA O C4 DONDE FIGURE EL GRADO DE INSTRUCCIÓN ( INDISPENSABLE)TENEMOS CONVOCATORIA LOS SIGUIENTES DÍASMIERCOLES 04 DE SEPTIEMBRE09:30 am , 10:50am , 12:00pm, 2:30pmJUEVES 05 DE SEPTIEMBRE09:30 am , 10:50am , 12:00pm, 2:30pmVIERNES 06 DE SEPTIEMBRE09:30 am , 10:50am , 11:30amObjetivos de la posición:Dar soporte en la ejecución de los procesos manuales en la línea de producción que aseguren la elaboración de nuestros productos de acuerdo con los estándares de Seguridad, Calidad, Costo y servicio.Lo que te hará exitoso: Secundaria Completa (Indispensable) Disponibilidad completa para trabajar en turnos rotativos (mañana, tarde y madrugada), con un día de descanso rotativo. Deseable experiencia mínima de 3 meses en funciones similares o manipulando alimentos en empresas de consumo masivo o afines. (No excluyente) Disponibilidad para trabajar en nuestra Fábrica D’Onofrio¿Cuáles serán tus beneficios? Salario S/1025 Ingreso a planilla desde el primer día con todos los beneficios de ley. Alimentación cubierta al 65% en nuestros comedores, 100% en el turno nocturno. Bonificación por turno nocturno 40% Contrato temporal, con posibilidad de renovación Nutrimarket (descuentos para adquirir productos Nestlé). Seguro Vida Ley.¡Nestlé promueve el trabajo formal!</t>
   </si>
   <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Practicante de logística con conocimiento básicos en Power BI (Presenc...</t>
-  </si>
-  <si>
-    <t>Santa Anita, Lima</t>
-  </si>
-  <si>
-    <t>Tecsup, organización educativa privada sin fines de lucro especializados a formar profesionales en tecnología con alta demanda en el mercado laboral, así como brindar servicios de consultoría, entrenamiento y aplicación de tecnología a empresas de los diferentes sectores de la industria; se encuentra en búsqueda del siguiente profesional: PRACTICANTE PROFESIONAL DE LOGÍSTICAFUNCIONES: Validar la base de datos existente de activo fijo, con las respectivas altas, bajas y transferencias. Identificar y registrar los activos fijos nuevos (altas). Identificar y reetiquetar los activos existentes. Etiquetar los activos nuevos (altas). Reportes estadísticos según avance.PERFIL PROFESIONAL: Recién egresados de la carrera de diseño y producción industrial, Redes o afines. Inglés - intermedio Word - intermedio Power point - intermedio Excel - intermedio Power BI - básico Deseable conocimiento en inventariosOFRECEMOS: Pertenecer a una institución acreditada internacionalmente. Grato ambiente de prácticas Movilidad corporativa de acercamientoIMPORTANTE CONSIDERAR: Lugar de trabajo: Santa Anita Disponibilidad para laborar en horario de lunes a viernes de 8 am. a 6 pm."En Tecsup nos comprometemos con la igualdad de oportunidades. Todas las personas serán consideradas en el proceso de postulación."</t>
-  </si>
-  <si>
     <t>Supervisor de Seguridad y Salud en Saneamiento</t>
   </si>
   <si>
-    <t>Callao, Lima</t>
-  </si>
-  <si>
-    <t>Nuestro importante cliente, se encuentra en búsqueda de personal para: Supervisor de Seguridad y SaludREQUISITOS: Bachiller en Ingeniería Ambiental, Ingeniería Industrial, Ingeniería de Seguridad, y/o carreras afines. Vivir zonas aledañas al Callao. Experiencia no menor de 6 meses, en posiciones y/o funciones similares, pueden ser desde puestos como: coordinador(a), encargado(a), líder, entre otros símil. Conocimiento en sistema de Gestión , Seguridad y Salud en el Trabajo. Conocimientos en higiene y gestión ambiental. Conocimiento de legislación vigente con respecto a la ley 29783. Experiencia en inspecciones de planta, complementando con su gestión administrativa.FUNCIONES: Supervisar el cumplimiento de la normativa nacional vigente sobre prevención de riesgos laborales. Coordinar, ejecutar y mantener programas de prevención de riesgos de acuerdo al SGSST. Asesorar a los órganos ejecutores del sistema de gestión de SSO, en la identificación de peligros, evaluación de riesgos, investigación de accidentes de trabajo, planteamiento y ejecución de acciones correctivas y de control. Aplicar medidas de control y supervisión en materia de SST a las labores realizadas por las empresas contratistas. Cumplir con los requisitos sanitarios, calidad, seguridad y salud ocupacional, ambientales, de responsabilidad social y legales aplicables, así como las políticas, directivas y procedimientos establecidos por la organización.COMPETENCIAS: Planificación y Organización Trabajo en Equipo Tolerancia al estrés Proactiva</t>
-  </si>
-  <si>
-    <t>Desarrollador Senior - IBM cloud</t>
-  </si>
-  <si>
-    <t>Lima, Lima</t>
-  </si>
-  <si>
-    <t>ACERCA DE LA EMPRESAEn SEIDOR ayudamos a impulsar la transformación y la competitividad de nuestros clientes a través de la tecnología y la innovación, poniendo foco siempre en el valor de lo humano y comprometidos con el talento y el desarrollo sostenible.Somos una organización diversa e inclusiva que creemos en la igualdad de oportunidades, y contamos ya con más de 9.000 profesionales, en 45 países de Europa, América Latina, Estados Unidos, Oriente Medio, África y Asia,Aquí podrás desarrollarte y crecer profesional y personalmente desde el primer día, con el apoyo de un gran equipo con valores humanos compartidos.Realizamos proyectos con impacto positivo a nivel nacional e internacional en clientes de todos los sectores y trabajamos de la mano de los mejores líderes tecnológicos (como SAP, Microsoft, Salesforce, IBM, Google, AWS, Cisco, Adobe), siendo una de las compañías más reconocidas y premiadas por nuestros partners.Estamos comprometidos con la sostenibilidad, promovemos criterios ASG (Ambientales, Sociales y de Gobierno) para conseguir alcanzar un desarrollo sostenible y hemos reducido y compensado nuestra huella de carbono, convirtiéndonos en una empresa net-zero.En SEIDOR creemos que, para hacer frente a los desafíos del mundo digital y a los nuevos retos que se plantean, debemos contar con los mejores aliados, las tecnologías líderes del mercado, y por encima de ello, con las mejores personas.¿Te apuntas a humanizar la tecnología?¿Quieres conocernos un poco mejor?Síguenos en nuestros perfiles de redes sociales y a través de nuestra web: SEIDOR Peru | Consultoría Tecnológica Instagram: seidorperu Linkedin: SEIDOR Perú Portal de empleos: seidor.onlineACERCA DEL EMPLEOSomos una gran empresa con alma de start-up. Nos organizamos por unidades de conocimiento expertas que colaboran entre sí.Por ello buscamos personas inquietas, que les motiven los retos y con ganas de crecer personal y profesionalmente, que se unan a nuestro equipo para tener un impacto positivo en el mundo a través de la tecnología.¿TE APUNTAS AL RETO?Queremos que formes parte del nuestro equipo de SEIDOR Innovativa, como DESARROLLADOR SENIOR - IBM CLOUD.¿QUÉ HARÁS EN TU DIA A DIA? Diseñar, implementar y documentar Solución de Aplicaciones. Elaborar el diseño técnico del proyecto Implementar y ejecutar las soluciones diseñadas Coordinar con el analista de control de calidad la revisión del proyecto Supervisar el avance del proyecto y el trabajo de los programadores Coordinar el pase a producción del proyecto Gestionar la comunicación con los usuarios sobre la atención de los requerimientos de desarrollo de software.¿QUÉ ESPERAMOS DE TI? Egresados de la carrera de Ingeniería de sistemas, ingeniería informática o afines. Experiencia mínima de 02 años en puestos similares. Experiencia en IBM Cloud con dominio en IBM API o IBM APP Experiencia en sector financiero / banca. Conocimientos en Javascript, python, Go, Java, Swagger, SQL y BIAN 12. Ingles intermedio (ideal).¿QUÉ ENCONTRARÁS EN SEIDOR? Un equipo diverso. Respetamos las diferencias que nos hacen más humanos. 💜 Compañerismo. Trabajamos en equipo y aprendemos los unos de los otros. Aprendizaje continuo. Capacitaciones, certificaciones, etc. Carrera profesional individualizada, para que seas tú quien decide a donde quieres llegar. 🚀 Si tienes inquietudes internacionales, estamos en 45 países. 🌍¡Únete a nuestro equipo y ayúdanos a humanizar el mundo a través de la tecnología!</t>
+    <t>Nuestro importante cliente, se encuentra en búsqueda de personal para:SUPERVISOR DE SEGURIDAD Y SALUD FUMIGACIÓNREQUISITOS: Técnico en SST o bachiller en Ingeniería Ambiental, Ingeniería Industrial, y/o carreras afines. Vivir zonas aledañas al Callao. Experiencia no menor de 6 meses, en posiciones y/o funciones similares, pueden ser desde puestos como: coordinador(a), encargado(a), líder, entre otros símil. Conocimiento en sistema de Gestión , Seguridad y Salud en el Trabajo. Conocimientos en higiene y gestión ambiental. Conocimiento de legislación vigente con respecto a la ley 29783. Experiencia en inspecciones de planta, complementando con su gestión administrativa.FUNCIONES: Supervisar el cumplimiento de la normativa nacional vigente sobre prevención de riesgos laborales. Coordinar, ejecutar y mantener programas de prevención de riesgos de acuerdo al SGSST. Asesorar a los órganos ejecutores del sistema de gestión de SSO, en la identificación de peligros, evaluación de riesgos, investigación de accidentes de trabajo, planteamiento y ejecución de acciones correctivas y de control. Aplicar medidas de control y supervisión en materia de SST a las labores realizadas por las empresas contratistas. Cumplir con los requisitos sanitarios, calidad, seguridad y salud ocupacional, ambientales, de responsabilidad social y legales aplicables, así como las políticas, directivas y procedimientos establecidos por la organización.COMPETENCIAS: Planificación y Organización Trabajo en Equipo Tolerancia al estrés Proactiva</t>
   </si>
   <si>
     <t>Promotor de Ventas</t>
   </si>
   <si>
-    <t>Miraflores, Lima</t>
-  </si>
-  <si>
     <t>Promotor de VentasResumen del PuestoBuscamos un Promotor de Ventas experimentado para unirse a nuestro equipo. El candidato ideal tendrá un fuerte conocimiento de las técnicas de ventas y será capaz de trabajar de forma independiente y como parte de un equipo.Responsabilidades Promocionar y vender productos y servicios a clientes potenciales. Desarrollar y mantener relaciones con los clientes. Identificar y calificar clientes potenciales. Negociar y cerrar tratos. Realizar un seguimiento de las ventas y el rendimiento.Requisitos Experiencia en ventas. Experiencia en venta de cortinas rollers. Fuerte conocimiento de las técnicas de ventas. Excelentes habilidades de comunicación y negociación. Capacidad para trabajar de forma independiente y como parte de un equipo. Excelentes habilidades de organización y gestión del tiempo.</t>
   </si>
   <si>
-    <t>Interseguro Asesor Comercial (Remoto)</t>
-  </si>
-  <si>
-    <t>San Isidro, Lima</t>
-  </si>
-  <si>
-    <t>Empresa Líder con experiencia en el rubro de Salud y Seguros, Somos Socios Comerciales a nivel nacional de Auna y Oncosalud y con gran alegría te decimos que, debido al crecimiento de nuestro grupo, estamos buscando a los mejores Talentos en Ventas como tú.¿QUÉ OFRECEMOS? Contrato en Planilla desde el primer día con 14 sueldos al año y todos los beneficios de ley (gratificaciones, vacaciones, CTS). Ingreso inmediato a planilla desde el primer día. Sueldo base competitivo, oscilando entre S/1200 y S/1500. Bono de por productividad. Bonos Semanales desde s/100 a s/400 a mas Comisiones ilimitadas, con montos que varían entre S/750 y S/2500 a más. Incentivos económicos y premios por desempeño destacado. Oportunidades de crecimiento y desarrollo profesional a través de evaluaciones trimestrales. Modalidad de trabajo desde casa (Home Office) y de manera Presencial. Entrenamiento constante para potenciar tus habilidades. Ambiente laboral excepcional. Pagos puntuales y confiables. 100% de cobertura en seguro oncológico. Descuentos en Marcas y Empresas Afiliadas a la red. Presupuesto Digitales.¿QUÉ BUSCAMOS? Experiencia previa en ventas, preferiblemente en rubros como Seguros, productos intangibles, créditos, etc. Habilidad para contactar y gestionar clientes con RUC 20, RUC 10 y DNI. Participación en reuniones diarias de forma virtual con el equipo de ventas y los clientes (a través de plataformas de video llamada). Generación diaria de prospectos de manera remota a través de redes sociales, correo electrónico, video llamadas y llamadas telefónicas. Cierre efectivo de ventas de la línea de productos de Auna Salud y Oncosalud Disponibilidad para trabajar de lunes a sábado en horarios de 9:00 AM a 6:30 (lunes a viernes) y de 9:00 AM a 1:00 PM (sábados). Habilidades destacadas de negociación y empatía.¡No esperes más y postula ahora para formar parte de nuestro equipo!</t>
-  </si>
-  <si>
-    <t>Onco Salud Asesor Comercial / REMOTO - PLANILLA COMPLETA</t>
-  </si>
-  <si>
-    <t>Somos YT Grupo, Empresa Líder con experiencia en el rubro de Salud y Seguros, Somos Socios Comerciales a nivel nacional de Auna y Oncosalud y con gran alegría te decimos que, debido al crecimiento de nuestro grupo, estamos buscando a los mejores Talentos en Ventas como tú.¿QUÉ OFRECEMOS? Contrato en Planilla desde el primer día con 14 sueldos al año y todos los beneficios de ley (gratificaciones, vacaciones, CTS). Ingreso inmediato a planilla desde el primer día. Sueldo base competitivo, S/1025 Bono de por productividad. Bonos Semanales desde s/100 a s/400 a mas Comisiones ilimitadas, con montos que varían entre S/750 y S/2500 a más. Incentivos económicos y premios por desempeño destacado. Oportunidades de crecimiento y desarrollo profesional a través de evaluaciones trimestrales. Modalidad de trabajo desde casa (Home Office) y de manera Presencial. Entrenamiento constante para potenciar tus habilidades. Ambiente laboral excepcional. Pagos puntuales y confiables. 100% de cobertura en seguro oncológico. Descuentos en Marcas y Empresas Afiliadas a la red. Presupuesto Digitales.¿QUÉ BUSCAMOS? Experiencia previa en ventas, preferiblemente en rubros como Seguros, productos intangibles, créditos, etc. Habilidad para contactar y gestionar clientes con RUC 20, RUC 10 y DNI. Participación en reuniones diarias de forma virtual con el equipo de ventas y los clientes (a través de plataformas de video llamada). Generación diaria de prospectos de manera remota a través de redes sociales, correo electrónico, video llamadas y llamadas telefónicas. Cierre efectivo de ventas de la línea de productos de Auna Salud y Oncosalud Disponibilidad para trabajar de lunes a sábado en horarios de 9:00 AM a 6:30 (lunes a viernes) y de 9:00 AM a 1:00 PM (sábados). Habilidades destacadas de negociación y empatía.¡No esperes más y postula ahora para formar parte de nuestro equipo!</t>
-  </si>
-  <si>
-    <t>Izipay Ejecutivo Comercial / Trabajo REMOTO / LIMA</t>
-  </si>
-  <si>
-    <t>Somos YT Grupo, Empresa Líder con experiencia en el rubro de Medios de Pagos, Somos Socios Comerciales a nivel nacional de Izipay y con gran alegría te decimos que debido al crecimiento de nuestro grupo, estamos buscando a los mejores Talentos en Ventas como tú. ¡Únete a nuestro equipo de ventas en Izipay Perú!¿QUÉ OFRECEMOS? Contrato en Planilla FULL con 14 sueldos al año y todos los beneficios de ley (gratificaciones, vacaciones, CTS). Ingreso inmediato a planilla desde el primer día. Sueldo base competitivo, oscilando entre S/1200 y S/1500. Bono de Alimentacion por productividad. Bonos Semanales Aprox (s/.300). Comisiones ilimitadas, con montos que varían entre S/750 y S/2500. Incentivos económicos y premios por desempeño destacado. Oportunidades de crecimiento y desarrollo profesional a través de evaluaciones trimestrales. Modalidad de trabajo desde casa (Home Office). Entrenamiento constante para potenciar tus habilidades. Ambiente laboral excepcional. Pagos puntuales y confiables. 100% de cobertura en seguro oncologico. Descuentos en Marcas y Empresas Afiliadas a la red. Presupuesto Digitales.¿QUÉ BUSCAMOS? Experiencia previa en ventas remotas, preferiblemente en rubros como Medios de Pagos (P.O.S), Seguros, productos intangibles, créditos, etc. Habilidad para contactar y gestionar clientes con RUC 20, RUC 10 y DNI. Participación en reuniones diarias de forma virtual con el equipo de ventas y los clientes (a través de plataformas de video llamada). Generación diaria de prospectos de manera remota a través de redes sociales, correo electrónico, video llamadas y llamadas telefónicas. Cierre efectivo de ventas de la línea de productos de Izipay. Disponibilidad para trabajar de lunes a sábado en horarios de 9:00 AM a 6:30 PM (lunes a viernes) y de 9:00 AM a 1:00 PM (sábados). Habilidades destacadas de negociación y empatía.¡No esperes más y postula ahora para formar parte de nuestro equipo!</t>
-  </si>
-  <si>
-    <t>Ejecutivo de Ventas (call center)</t>
-  </si>
-  <si>
-    <t>¡Únete a nuestro equipo como Asesor(a) de Venta Digital!¿Eres una persona apasionada por las ventas y la tecnología? ¿Te motivan los retos y el logro de objetivos? En Pandero SA EAFC estamos buscando un(a) Asesor(a) de Venta Digital para unirse a nuestro equipo dinámico y en constante crecimiento.¿Qué buscamos? Experiencia en gestión de cartera de clientes (deseable). Habilidad en ventas telefónicas (call center). Orientación al cliente con capacidad para construir y mantener relaciones sólidas. Excelentes habilidades de comunicación y persuasión. Disponibilidad para trabajar a tiempo completo en el Distrito de San Isidro.Tus responsabilidades incluirán: Atender y gestionar los leads asignados. Promover y vender el financiamiento de Pandero. Fidelizar y realizar seguimiento a tu cartera de clientes.¿Qué ofrecemos? Ingreso a planilla con todos los beneficios de ley. Trabajo en un lugar fijo en San Isidro. Comisiones sin límite.En Pandero SA EAFC, te ofrecemos un entorno de trabajo dinámico y colaborativo, donde el crecimiento profesional es una prioridad. Valoramos tu talento y esfuerzo, y te brindamos la oportunidad de desarrollar tu carrera en un ambiente que fomenta la innovación y la excelencia.Si tienes una sólida experiencia en ventas, eres apasionado(a) por la tecnología y te entusiasma el mundo digital, ¡esta es tu oportunidad para crecer con nosotros!</t>
-  </si>
-  <si>
     <t>Analista de Inteligencia de Negocios y Datos</t>
   </si>
   <si>
@@ -145,61 +742,19 @@
     <t>Buscamos un(a) Analista de Innovación y Mejora Continua, que se encargue de identificar, analizar e implementar los procesos que involucran la mejora continua para el Colegio Médico del Perú.Funciones: Analizar y proponer alternativas de mejora de procesos considerando los lineamientos de la Secretaría respectiva. Estandarizar procesos con metodologías de mejora continua y herramientas de ingeniería para mejorar la calidad de servicio al colegiado médico. Concertar reuniones y mesas de trabajo con las áreas correspondientes a fin de diseñar o validar estructuras de los procesos de la compañía. Documentar los procesos mejorados (procedimientos, políticas, diagramas de flujo u otros entregables relacionados). Definir e implementar métricas clave para evaluar el rendimiento de los procesos y la sostenibilidad de las mejoras. Proponer proyectos de mejora continua de procesos de la organización con el fin de optimizar los recursos asignados. Brindar asistencia técnica en la elaboración y/o actualización de los procedimientos de procesos a cada responsable del proceso con enfoque de ISO 9001. Capacitar a los responsables de los procesos en las metodologías de gestión de cambio y mejoras de procesos a fin de hacer cumplir los lineamientos ligados al proyecto. Brindar asistencia técnica en la formulación de los KPI's de procesos a los responsables de cada proceso.Requisitos:✓ Egresado de las carreras Ingeniería Industrial, Gestión, Administración o carreras afines✓ Curso o Diplomado en Gestión de Procesos, Sistemas Integrados de Gestión o afines.✓ Mínimo 02 años como Analista de proyectos de mejora en empresas que brindan servicios.✓ Cursos en Gestión de proyectos, herramientas de diseño de proyectos.✓ Manejo de Excel a nivel intermedio.✓ Deseable experiencia previa en análisis de procesos y mejora continua en el sector salud o empresas que brindan servicios.✓ Deseable conocimiento de la ISO 9001.✓ Disponibilidad para laborar presencial en Miraflores-Lima.Aptitudes:✓ Responsable✓ Proactivo y dinámico.✓ Ordenado y disciplinado.✓ Comunicativo✓ Buena disposición✓ Trabajo en equipo</t>
   </si>
   <si>
-    <t>Asesor inmobiliario - Con o sin experiencia - Altas comisiones (ventas...</t>
-  </si>
-  <si>
-    <t>¡Buscamos personas con muchas ambiciones!¡Únete a la inmobiliaria número 1 del Perú y el mundo! Nuestro sector es el único que sigue en crecimiento a pesar de la coyuntura. Ofrecemos las comisiones más altas del mercado, sin tope de monto.Funciones Brindar seguimiento de la propiedad desde su captación hasta su cierre Mostrar propiedades en compra o alquiler a clientes Realizar tasaciones de propiedades Captar inmuebles y realizar marketing¿Qué te ofrecemos? Recibir las más altas comisiones del mercado, sin tope de monto. Pagos por porcentaje del total del valor de la propiedad. Horario flexible Capacitación constante en el rubro inmobiliario, crecimiento personal, coaching y asesoría contable con la finalidad de lograr todos tus objetivos. Grato ambiente de trabajo en la mejor zona de San Isidro Reconocimientos y premiaciones por logro de metas Contamos con una cartera de más de 14,000 inmuebles en alquiler o compra en nuestra cartera Asociarte a la mejor franquicia inmobiliaria del Perú y del mundo.¿Qué buscamos? Personas con o sin experiencia en el rubro inmobiliario Alto grado de espíritu de servicio y compromiso Responsabilidad Ser ambicioso Saber trabajar en equipo Espíritu de emprendimiento Compromiso con sus metas Manejo de redes sociales (deseable)* Nuestra riqueza está en nuestra diversidad. Estamos comprometidos con la igualdad de oportunidades, la no discriminación y la no violencia promoviendo un lugar de trabajo inclusivo y seguro.</t>
-  </si>
-  <si>
-    <t>AGENTE DE VENTAS EN BIENES RAICES</t>
-  </si>
-  <si>
-    <t>Atención al cliente Chat Canal escrito - Call center/Trabajo presencia...</t>
-  </si>
-  <si>
-    <t>TRUST CORP, importante empresa transnacional con sólida presencia en el rubro de Telecomunicaciones y Call Center, para promociones, ventas, atención al cliente, asistencia de seguros, se encuentra en búsqueda de nuevos talentos para laborar como: TELEOPERADOR ATENCIÓN AL CLIENTE - RUBRO FINANCIERO / CANAL ESCRITO - GESTIÓN POR CHAT TRABAJO PRESENCIAL ¿Qué requisitos necesitas? 😀*Secundaria Completa *Experiencia 6 meses en atención al cliente por call center *Contar con disponibilidad para laborar y llevar la capacitación de manera presencial en Cercado de Lima *Vivir en Lima y Callao (indispensable). HORARIO 🤗- Horario Rotativo: *Franja horaria: Lunes a Domingos: 6 am - 9 pm (Gestión de 48 horas semanales) *Descanso: Rotativo ¿QUÉ TE OFRECEMOS?🤔- S/ 1200 + Bono Variable S/700. - Bonos por permanencia periodo de 6 meses, 1 año ... - Ingreso a planilla con todos los beneficios de ley. - Capacitaciones pagadas - Excelente clima laboral - Oportunidad de crecimiento En TrustCorp promovemos la inclusión e inserción laboral sin distinción por razón de discapacidad, género, orientación, identidad y expresión de género, lugar de origen o generación, Por ello ¡Todos los talentos son bienvenidos!</t>
-  </si>
-  <si>
     <t>Ejecutivo de ventas - Crédito vehicular - Mall Santa Anita, San Juan D...</t>
   </si>
   <si>
-    <t>En Pandero impulsamos # Historias de Éxito..Únete como EJECUTIVO DE VENTAS y dale la bienvenida a lo posible!Objetivo del puesto: Hacer posible que nuestros clientes cumplan la meta del auto o casa propia, vendiendo contratos de fondos colectivos en nuestra amplia red de puntos de venta.Requisitos: Experiencia deseable en ventas o atencion al cliente CAPACIDAD PARA APRENDER ONLINE, buen manejo de aplicaciones móviles Disponibilidad para trabajar full-time.- Celular con sistema operativo androidTe ofrecemos: Ingreso a planilla con todos los beneficios de ley. Eres comisionista y tú eliges cuanto ganar.. ¡No existe un límite! Mantendrás un punto de venta fijo cercano a tu domicilio</t>
-  </si>
-  <si>
-    <t>Asistente para la Administración General</t>
-  </si>
-  <si>
-    <t>San Juan De Lurigancho., Lima</t>
-  </si>
-  <si>
-    <t>Somos un grupo de empresas peruanas con más de 20 años dedicado a la fabricación de productos plásticos para el hogar e industria. Actualmente estamos buscando el mejor talento para ocupar el puesto de Asistente de Administración General.Tu principal reto es:Liderar la reestructuración de procesos clave a todo nivel en la empresa, coordinando con áreas como Comercial, Producción, Logística y Finanzas para alinear sus procesos hacia los objetivos estratégicos de la compañía.El perfil ideal es el siguiente:Especializacion en Gestión de la Calidad Administrador(a), Ingeniero(a) Industrial o afinesMás de 3 años de experiencia profesional. Incluyendo en distintas áreas como Comercial o Producción.Experiencia en empresas productivasLiderazgo, excelente comunicaciónMetódico(a) y organizado(a)Disponibilidad para trabajar en San Juan de Lurigancho de Lunes a Sábados.</t>
-  </si>
-  <si>
     <t>Jefe Comercial</t>
   </si>
   <si>
     <t>Somos una empresa Industrial Manufacturera y nos encontramos en la búsqueda del mejor talento para puesto de Jefe Comercial.OBJETIVO DEL PUESTO Lograr el crecimiento de la cartera de clientes y el desarrollo de nuevos negocios (concepción de nuevos productos, análisis del mercado y competencia; y estudio de necesidades del cliente). Formular, planificar estrategias comerciales afines con los objetivos propuestos por la Gerencia. Elaborar proyecciones y planes comerciales para el seguimiento de los logros y como herramienta para las áreas de operaciones y finanzas.COMPETENCIAS ESPECÍFICAS Liderazgo Planificación y organización Comunicación efectiva Desarrollo de personas Visión estratégicaREQUISITOS Mínimo 5 años de experiencia en cargos similares Experiencia en empresa manufacturera. Formación Académica; Ingeniero Industrial, Administrador y afines Experiencia negociando con retail y mayoristas. Manejo de Excel intermedio - avanzado Disponibilidad Inmediata - Indispensable</t>
   </si>
   <si>
-    <t>Teleoperador de atención y ventas turno mañana en Los Olivos</t>
-  </si>
-  <si>
-    <t>Los Olivos, Lima</t>
-  </si>
-  <si>
-    <t>Asesor de Atención y VentasResumen del PuestoBuscamos un Asesor de Atención y Ventas experimentado para unirse a nuestro equipo. El candidato ideal tendrá un fuerte conocimiento de los servicios telefónicos y será capaz de trabajar de forma independiente y como parte de un equipo.Responsabilidades Asesorar a los clientes sobre los diferentes servicios telefónicos disponibles. Realizar ventas de servicios telefónicos. Ofrecer beneficios de nuevos productos. Mantenerse al día de los cambios en los servicios telefónicos.Requisitos Experiencia en atención y ventas telefónicas. (No indispensable) Conocimiento de los servicios telefónicos. Excelentes habilidades de comunicación y negociación. Capacidad para trabajar de forma independiente y como parte de un equipo. Orientación a resultados. Disponibilidad para trabajar en turnos fijos.De cumplir con los requisitos, acercate a entrevista a la Av. Naranjal 1308 piso 3, Los Olivos. Referencia: Clínica dental Paradise.Horarios: Acércate en cualquiera de los dos horarios de lunes a viernes con tu CV impreso y fotocopia de DNI.. 9:00 am 1:00 pmPreguntar por Raquel Trinidad.¡Te esperamos!</t>
-  </si>
-  <si>
     <t>Jefe(a) de Operaciones de Delivery Central</t>
   </si>
   <si>
     <t>¡Únete a la Familia NGR y vive una experiencia ÚNICA!¡En NGR tenemos el propósito de entregar cariño y energía a través del sabor y experiencias únicas y, para seguir trascendiendo con nuestro propósito, estamos buscando a nuestro/a próximo/a JEFE DE OPERACIONES DELIVERY!Somos una gran familia con más de 8000 colaboradores/as apasionados/as por la gastronomía, pero sobre todo por nuestras personas. Contamos con 6 marcas increíbles: Bembos, Chinawok, Don Belisario, Dunkin, Papa Johns y Popeyes. Adicionalmente, creemos firmemente que las diferencias nos enriquecen y el respeto nos une. Valoramos la diversidad y estamos comprometidos/as con la inclusión, respetando todas las formas de entregar cariño y energía.¿Cuáles serán tus principales retos y desafíos? Responsable del negocio de última milla como soporte a las operaciones de marcas propias y/o terceras. Lider de entre 800 a 1000 personas bajo las posiciones de supervisores, gerenciales, controladores y repartidores. Identificar las necesidades y brechas de aprendizaje en el Delivery Central, basado en el análisis de resultados y cumplimiento de procesos. Tener mapeado continuamente el talento interno para la definición y ejecución de los planes de desarrollo que garanticen el feedback y crecimiento permanente de los colaboradores. Responsable de indicadores como nivel de ventas, transacciones, productividad, tiempos, rotación, cobertura de personal, satisfacción de clientes internos y externos, entre otros de gestión. Generar visitas operativas a los puntos a los cuales se les brinda el soporte de última milla y a la Torre de Control Central. Cumplir con las políticas, procedimientos y estándares de la compañía. Comunicación a diferentes niveles jerárquicos de la organización. Liderar el área de operaciones de Delivery Central con disponibilidad 24 - 7 – 365. Gestiona, planifica, reúne al equipo, establece plan de trabajo, seguimiento, establece un plan de proyecto (cronograma).¿Qué necesitas para ser el próximo/a Jefe de Operaciones de Delivery Central? Egresado universitario de las carreras en Administración, Ingeniería Industrial, afines. Experiencia de 02 años en la posición y/o similares, deseable en empresas de Delivery , manejando la operación de delivery en temas de procesos, operación, ventas, gestión de personas, indicadores, proveedores, entre otros. Manejo de Ms. Office a nivel intermedio. Dominio del idioma inglés a nivel intermedio.¿Qué te ofrecemos? Ser parte de una de las mejores empresas a nivel nacional con una cultura organizacional llena de cariño y energía (Puesto 7 en GreatPlaceToWork 2024). Oportunidades de crecimiento dentro de NGR. Ingreso a planilla con todos los beneficios de ley. 25% de descuento en todas nuestras marcas . Plataforma de descuentos corporativos en distintos ámbitos como Entretenimiento, Retail, Deporte, Etc. Acceso a plataforma de bienestar con psicología, medicina y nutrición. * *NGR es una empresa incluyente, que respeta la diversidad y no hace ningún tipo de discriminación * *</t>
-  </si>
-  <si>
-    <t>Atención al alumno / Híbrido / PM - Centro de Lima</t>
-  </si>
-  <si>
-    <t>¡Únete a nuestra empresa! Buscamos un Gestor de soporte al estudiante. Somos S4Learning, una corporación educativa con presencia internacional que brinda servicios a una universidad líder en educación en línea con operaciones en Perú, Colombia y Ecuador. Nos encontramos en búsqueda gestores para brindar soporte a nuestros alumnos. En este rol, serás responsable de: Acompañar a los estudiantes durante las diferentes etapas de su proceso de aprendizaje. Identificar las necesidades o dificultades que puedan presentar los estudiantes • Brindar estrategias y soluciones para que los estudiantes superen sus dificultades. Canalizar las necesidades de los estudiantes a los departamentos correspondientes. Realizar seguimiento a las necesidades de los estudiantes hasta su resolución. Promover la permanencia del estudiante hasta la conclusión de su programa académico. ¿Qué te ofrecemos? Remuneración fija de 1025 soles Variable por cumplimiento de indicadores. Horarios fijos de 7 horas al día y horario de almuerzo (Se descansa sábado o domingo, rotativo). Acceso a becas de hasta el 100% de cobertura. Modalidad de trabajo híbrido: 3 DIAS PRESENCIAL Y 3 DIAS REMOTO. Un ambiente de trabajo dinámico, innovador y apasionado por la educación. La oportunidad de trabajar con un equipo talentoso y comprometido. Oportunidades de crecimiento profesional dentro de la empresa. Requisitos: Formación superior (técnica o universitaria) trunco, en curso o concluso. Experiencia mínima de 6 meses atención al cliente en forma presencial y/o en línea - Call Center o en campañas de retención / fidelización. Excelentes habilidades de comunicación oral y escrita. Orientación al cliente y enfoque en la resolución de problemas. Contar con equipos (PC o Laptop) para los días que toca trabajar desde casa.¿Te apasiona la educación y quieres contribuir al éxito de los estudiantes? ¡Postula a este aviso y envíanos tu CV! ¡No pierdas la oportunidad de formar parte de una empresa que transforma vidas a través de la educación!</t>
   </si>
 </sst>
 </file>
@@ -576,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K101"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -724,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -733,7 +1288,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -756,19 +1311,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -791,19 +1346,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -826,19 +1381,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -861,16 +1416,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -899,7 +1454,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -908,7 +1463,7 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -931,19 +1486,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -966,19 +1521,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1001,19 +1556,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1036,19 +1591,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1071,19 +1626,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1106,19 +1661,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -1141,19 +1696,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1176,19 +1731,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1211,19 +1766,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1246,19 +1801,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1281,36 +1836,2836 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>217</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" t="s">
+        <v>225</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" t="s">
+        <v>229</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" t="s">
+        <v>238</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" t="s">
+        <v>242</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>245</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" t="s">
+        <v>247</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" t="s">
         <v>18</v>
       </c>
     </row>
